--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1967,10 +1967,10 @@
   <dimension ref="A1:CG281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D136" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F167" sqref="F167"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="448">
   <si>
     <t>Ankit</t>
   </si>
@@ -1354,6 +1354,12 @@
   </si>
   <si>
     <t>SS_ItemDelete_OneItem_CheckOut</t>
+  </si>
+  <si>
+    <t>SS_CheckOut_NewAddress_Clinique</t>
+  </si>
+  <si>
+    <t>BRANDS</t>
   </si>
 </sst>
 </file>
@@ -1976,13 +1982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG281"/>
+  <dimension ref="A1:CG282"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D182" sqref="D182"/>
+      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13589,7 +13595,7 @@
     </row>
     <row r="116" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>125</v>
+        <v>446</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>367</v>
@@ -13603,10 +13609,10 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2" t="s">
-        <v>53</v>
+        <v>447</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>327</v>
+        <v>6</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="2" t="s">
@@ -13664,21 +13670,12 @@
       <c r="AX116" s="1"/>
       <c r="AY116" s="1"/>
       <c r="AZ116" s="1"/>
-      <c r="BA116" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB116" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD116" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE116" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF116" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA116" s="1"/>
+      <c r="BB116" s="1"/>
+      <c r="BC116" s="1"/>
+      <c r="BD116" s="1"/>
+      <c r="BE116" s="1"/>
+      <c r="BF116" s="1"/>
       <c r="BG116" s="1"/>
       <c r="BH116" s="1"/>
       <c r="BI116" s="1"/>
@@ -13706,12 +13703,12 @@
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>367</v>
@@ -13787,18 +13784,21 @@
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
       <c r="BA117" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB117" s="1"/>
-      <c r="BC117" s="1"/>
-      <c r="BD117" s="1"/>
-      <c r="BE117" s="1"/>
-      <c r="BF117" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG117" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BB117" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE117" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
       <c r="BJ117" s="1"/>
@@ -13830,7 +13830,7 @@
     </row>
     <row r="118" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>396</v>
+        <v>131</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>367</v>
@@ -13944,12 +13944,12 @@
       <c r="CE118" s="1"/>
       <c r="CF118" s="1"/>
       <c r="CG118" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>367</v>
@@ -14011,12 +14011,8 @@
       <c r="AK119" s="1"/>
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
-      <c r="AN119" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AO119" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
       <c r="AP119" s="1"/>
       <c r="AQ119" s="1"/>
       <c r="AR119" s="1"/>
@@ -14045,14 +14041,10 @@
       <c r="BI119" s="1"/>
       <c r="BJ119" s="1"/>
       <c r="BK119" s="1"/>
-      <c r="BL119" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="BL119" s="1"/>
       <c r="BM119" s="1"/>
       <c r="BN119" s="1"/>
-      <c r="BO119" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="BO119" s="1"/>
       <c r="BP119" s="1"/>
       <c r="BQ119" s="1"/>
       <c r="BR119" s="1"/>
@@ -14076,7 +14068,7 @@
     </row>
     <row r="120" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>367</v>
@@ -14203,16 +14195,16 @@
     </row>
     <row r="121" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -14330,7 +14322,7 @@
     </row>
     <row r="122" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>367</v>
@@ -14347,7 +14339,7 @@
         <v>53</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="2" t="s">
@@ -14452,12 +14444,12 @@
       <c r="CE122" s="1"/>
       <c r="CF122" s="1"/>
       <c r="CG122" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="123" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>367</v>
@@ -14474,7 +14466,7 @@
         <v>53</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="2" t="s">
@@ -14579,12 +14571,12 @@
       <c r="CE123" s="1"/>
       <c r="CF123" s="1"/>
       <c r="CG123" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>367</v>
@@ -14711,7 +14703,7 @@
     </row>
     <row r="125" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>367</v>
@@ -14838,16 +14830,16 @@
     </row>
     <row r="126" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -14965,7 +14957,7 @@
     </row>
     <row r="127" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>367</v>
@@ -15092,7 +15084,7 @@
     </row>
     <row r="128" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>367</v>
@@ -15147,10 +15139,9 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
-      <c r="AG128" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
       <c r="AK128" s="1"/>
       <c r="AL128" s="1"/>
@@ -15220,7 +15211,7 @@
     </row>
     <row r="129" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>367</v>
@@ -15275,11 +15266,10 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="1"/>
+      <c r="AG129" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH129" s="1"/>
-      <c r="AI129" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="AJ129" s="1"/>
       <c r="AK129" s="1"/>
       <c r="AL129" s="1"/>
@@ -15344,12 +15334,12 @@
       <c r="CE129" s="1"/>
       <c r="CF129" s="1"/>
       <c r="CG129" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="130" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>367</v>
@@ -15406,13 +15396,13 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="1"/>
+      <c r="AI130" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
-      <c r="AM130" s="26" t="s">
-        <v>428</v>
-      </c>
+      <c r="AM130" s="1"/>
       <c r="AN130" s="1" t="s">
         <v>398</v>
       </c>
@@ -15473,12 +15463,12 @@
       <c r="CE130" s="1"/>
       <c r="CF130" s="1"/>
       <c r="CG130" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>367</v>
@@ -15537,11 +15527,11 @@
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
-      <c r="AK131" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
-      <c r="AM131" s="1"/>
+      <c r="AM131" s="26" t="s">
+        <v>428</v>
+      </c>
       <c r="AN131" s="1" t="s">
         <v>398</v>
       </c>
@@ -15607,7 +15597,7 @@
     </row>
     <row r="132" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>367</v>
@@ -15666,7 +15656,9 @@
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
+      <c r="AK132" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
       <c r="AN132" s="1" t="s">
@@ -15734,7 +15726,7 @@
     </row>
     <row r="133" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>367</v>
@@ -15861,7 +15853,7 @@
     </row>
     <row r="134" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>367</v>
@@ -15988,16 +15980,16 @@
     </row>
     <row r="135" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -16115,7 +16107,7 @@
     </row>
     <row r="136" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>367</v>
@@ -16242,7 +16234,7 @@
     </row>
     <row r="137" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>367</v>
@@ -16369,7 +16361,7 @@
     </row>
     <row r="138" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>367</v>
@@ -16496,16 +16488,16 @@
     </row>
     <row r="139" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -16623,13 +16615,13 @@
     </row>
     <row r="140" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C140" s="26" t="s">
-        <v>411</v>
+      <c r="C140" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>3</v>
@@ -16750,7 +16742,7 @@
     </row>
     <row r="141" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>367</v>
@@ -16767,7 +16759,7 @@
         <v>53</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="2" t="s">
@@ -16872,18 +16864,18 @@
       <c r="CE141" s="1"/>
       <c r="CF141" s="1"/>
       <c r="CG141" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>2</v>
+      <c r="C142" s="26" t="s">
+        <v>411</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
@@ -16894,7 +16886,7 @@
         <v>53</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -16999,12 +16991,12 @@
       <c r="CE142" s="1"/>
       <c r="CF142" s="1"/>
       <c r="CG142" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>367</v>
@@ -17131,7 +17123,7 @@
     </row>
     <row r="144" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>401</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>367</v>
@@ -17193,8 +17185,12 @@
       <c r="AK144" s="1"/>
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
-      <c r="AN144" s="1"/>
-      <c r="AO144" s="1"/>
+      <c r="AN144" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO144" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="AP144" s="1"/>
       <c r="AQ144" s="1"/>
       <c r="AR144" s="1"/>
@@ -17207,30 +17203,30 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
       <c r="BA144" s="1" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="BB144" s="1"/>
       <c r="BC144" s="1"/>
       <c r="BD144" s="1"/>
       <c r="BE144" s="1"/>
-      <c r="BF144" s="1"/>
-      <c r="BG144" s="1"/>
-      <c r="BH144" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI144" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ144" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK144" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BL144" s="1"/>
+      <c r="BF144" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG144" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH144" s="1"/>
+      <c r="BI144" s="1"/>
+      <c r="BJ144" s="1"/>
+      <c r="BK144" s="1"/>
+      <c r="BL144" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="BM144" s="1"/>
       <c r="BN144" s="1"/>
-      <c r="BO144" s="1"/>
+      <c r="BO144" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="BP144" s="1"/>
       <c r="BQ144" s="1"/>
       <c r="BR144" s="1"/>
@@ -17249,21 +17245,21 @@
       <c r="CE144" s="1"/>
       <c r="CF144" s="1"/>
       <c r="CG144" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>339</v>
+        <v>135</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D145" s="26" t="s">
-        <v>364</v>
+      <c r="C145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -17339,16 +17335,16 @@
       <c r="BF145" s="1"/>
       <c r="BG145" s="1"/>
       <c r="BH145" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI145" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ145" t="s">
-        <v>343</v>
+        <v>136</v>
+      </c>
+      <c r="BI145" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ145" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="BK145" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="BL145" s="1"/>
       <c r="BM145" s="1"/>
@@ -17362,18 +17358,10 @@
       <c r="BU145" s="1"/>
       <c r="BV145" s="1"/>
       <c r="BW145" s="1"/>
-      <c r="BX145" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY145" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="BZ145" t="s">
-        <v>345</v>
-      </c>
-      <c r="CA145" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="BX145" s="1"/>
+      <c r="BY145" s="1"/>
+      <c r="BZ145" s="1"/>
+      <c r="CA145" s="1"/>
       <c r="CB145" s="1"/>
       <c r="CC145" s="1"/>
       <c r="CD145" s="1"/>
@@ -17385,16 +17373,16 @@
     </row>
     <row r="146" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>137</v>
+        <v>339</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>3</v>
+      <c r="C146" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>364</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -17461,25 +17449,26 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB146" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD146" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE146" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF146" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="BB146" s="1"/>
+      <c r="BC146" s="1"/>
+      <c r="BD146" s="1"/>
+      <c r="BE146" s="1"/>
+      <c r="BF146" s="1"/>
       <c r="BG146" s="1"/>
-      <c r="BH146" s="1"/>
-      <c r="BI146" s="1"/>
-      <c r="BJ146" s="1"/>
-      <c r="BK146" s="1"/>
+      <c r="BH146" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI146" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ146" t="s">
+        <v>343</v>
+      </c>
+      <c r="BK146" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="BL146" s="1"/>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
@@ -17492,10 +17481,18 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="1"/>
       <c r="BW146" s="1"/>
-      <c r="BX146" s="1"/>
-      <c r="BY146" s="1"/>
-      <c r="BZ146" s="1"/>
-      <c r="CA146" s="1"/>
+      <c r="BX146" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY146" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="BZ146" t="s">
+        <v>345</v>
+      </c>
+      <c r="CA146" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="CB146" s="1"/>
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
@@ -17507,7 +17504,7 @@
     </row>
     <row r="147" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>367</v>
@@ -17583,18 +17580,21 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB147" s="1"/>
-      <c r="BC147" s="1"/>
-      <c r="BD147" s="1"/>
-      <c r="BE147" s="1"/>
-      <c r="BF147" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG147" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="BB147" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE147" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF147" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG147" s="1"/>
       <c r="BH147" s="1"/>
       <c r="BI147" s="1"/>
       <c r="BJ147" s="1"/>
@@ -17626,7 +17626,7 @@
     </row>
     <row r="148" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>367</v>
@@ -17701,25 +17701,23 @@
       <c r="AX148" s="1"/>
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
-      <c r="BA148" s="1"/>
+      <c r="BA148" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB148" s="1"/>
       <c r="BC148" s="1"/>
       <c r="BD148" s="1"/>
       <c r="BE148" s="1"/>
-      <c r="BF148" s="1"/>
-      <c r="BG148" s="1"/>
-      <c r="BH148" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI148" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ148" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK148" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="BF148" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG148" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH148" s="1"/>
+      <c r="BI148" s="1"/>
+      <c r="BJ148" s="1"/>
+      <c r="BK148" s="1"/>
       <c r="BL148" s="1"/>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
@@ -17747,15 +17745,17 @@
     </row>
     <row r="149" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D149" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="2" t="s">
@@ -17820,26 +17820,25 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
-      <c r="BA149" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB149" s="4" t="s">
+      <c r="BA149" s="1"/>
+      <c r="BB149" s="1"/>
+      <c r="BC149" s="1"/>
+      <c r="BD149" s="1"/>
+      <c r="BE149" s="1"/>
+      <c r="BF149" s="1"/>
+      <c r="BG149" s="1"/>
+      <c r="BH149" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI149" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BD149" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE149" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF149" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG149" s="1"/>
-      <c r="BH149" s="1"/>
-      <c r="BI149" s="1"/>
-      <c r="BJ149" s="1"/>
-      <c r="BK149" s="1"/>
+      <c r="BJ149" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK149" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="BL149" s="1"/>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
@@ -17867,7 +17866,7 @@
     </row>
     <row r="150" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>367</v>
@@ -17941,18 +17940,21 @@
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
       <c r="BA150" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB150" s="1"/>
-      <c r="BC150" s="1"/>
-      <c r="BD150" s="1"/>
-      <c r="BE150" s="1"/>
-      <c r="BF150" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG150" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="BB150" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD150" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE150" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF150" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG150" s="1"/>
       <c r="BH150" s="1"/>
       <c r="BI150" s="1"/>
       <c r="BJ150" s="1"/>
@@ -17984,17 +17986,15 @@
     </row>
     <row r="151" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C151" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C151" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="2" t="s">
@@ -18079,9 +18079,7 @@
       <c r="BL151" s="1"/>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
-      <c r="BO151" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="BO151" s="1"/>
       <c r="BP151" s="1"/>
       <c r="BQ151" s="1"/>
       <c r="BR151" s="1"/>
@@ -18105,7 +18103,7 @@
     </row>
     <row r="152" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>367</v>
@@ -18197,9 +18195,7 @@
       <c r="BI152" s="1"/>
       <c r="BJ152" s="1"/>
       <c r="BK152" s="1"/>
-      <c r="BL152" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="BL152" s="1"/>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
       <c r="BO152" s="1" t="s">
@@ -18223,12 +18219,12 @@
       <c r="CE152" s="1"/>
       <c r="CF152" s="1"/>
       <c r="CG152" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="153" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>367</v>
@@ -18325,7 +18321,9 @@
       </c>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
-      <c r="BO153" s="1"/>
+      <c r="BO153" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
@@ -18344,20 +18342,22 @@
       <c r="CE153" s="1"/>
       <c r="CF153" s="1"/>
       <c r="CG153" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D154" s="1"/>
+      <c r="C154" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="2" t="s">
@@ -18422,26 +18422,26 @@
       <c r="AX154" s="1"/>
       <c r="AY154" s="1"/>
       <c r="AZ154" s="1"/>
-      <c r="BA154" s="1"/>
+      <c r="BA154" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB154" s="1"/>
       <c r="BC154" s="1"/>
       <c r="BD154" s="1"/>
       <c r="BE154" s="1"/>
-      <c r="BF154" s="1"/>
-      <c r="BG154" s="1"/>
-      <c r="BH154" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI154" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ154" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK154" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BL154" s="1"/>
+      <c r="BF154" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG154" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH154" s="1"/>
+      <c r="BI154" s="1"/>
+      <c r="BJ154" s="1"/>
+      <c r="BK154" s="1"/>
+      <c r="BL154" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
       <c r="BO154" s="1"/>
@@ -18468,21 +18468,17 @@
     </row>
     <row r="155" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C155" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" t="s">
-        <v>3</v>
-      </c>
+      <c r="F155" s="1"/>
       <c r="G155" s="2" t="s">
         <v>53</v>
       </c>
@@ -18496,8 +18492,8 @@
       <c r="K155" t="s">
         <v>1</v>
       </c>
-      <c r="L155" s="1">
-        <v>1234567890</v>
+      <c r="L155" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="M155" s="2" t="s">
         <v>28</v>
@@ -18506,17 +18502,15 @@
         <v>236</v>
       </c>
       <c r="O155" s="1"/>
-      <c r="P155" s="1">
-        <v>122001</v>
+      <c r="P155" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
       <c r="U155" s="1"/>
-      <c r="V155" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V155" s="1"/>
       <c r="W155" s="1"/>
       <c r="X155" s="1"/>
       <c r="Y155" s="1"/>
@@ -18527,19 +18521,13 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
-      <c r="AG155" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
-      <c r="AI155" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
       <c r="AK155" s="1"/>
       <c r="AL155" s="1"/>
-      <c r="AM155" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM155" s="1"/>
       <c r="AN155" s="1"/>
       <c r="AO155" s="1"/>
       <c r="AP155" s="1"/>
@@ -18553,26 +18541,25 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
-      <c r="BA155" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB155" s="4" t="s">
+      <c r="BA155" s="1"/>
+      <c r="BB155" s="1"/>
+      <c r="BC155" s="1"/>
+      <c r="BD155" s="1"/>
+      <c r="BE155" s="1"/>
+      <c r="BF155" s="1"/>
+      <c r="BG155" s="1"/>
+      <c r="BH155" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI155" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BD155" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE155" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF155" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG155" s="1"/>
-      <c r="BH155" s="1"/>
-      <c r="BI155" s="1"/>
-      <c r="BJ155" s="1"/>
-      <c r="BK155" s="1"/>
+      <c r="BJ155" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK155" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="BL155" s="1"/>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
@@ -18600,13 +18587,13 @@
     </row>
     <row r="156" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>3</v>
@@ -18628,8 +18615,8 @@
       <c r="K156" t="s">
         <v>1</v>
       </c>
-      <c r="L156" s="1" t="s">
-        <v>5</v>
+      <c r="L156" s="1">
+        <v>1234567890</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>28</v>
@@ -18638,8 +18625,8 @@
         <v>236</v>
       </c>
       <c r="O156" s="1"/>
-      <c r="P156" s="1" t="s">
-        <v>124</v>
+      <c r="P156" s="1">
+        <v>122001</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
@@ -18686,18 +18673,21 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
       <c r="BA156" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB156" s="1"/>
-      <c r="BC156" s="1"/>
-      <c r="BD156" s="1"/>
-      <c r="BE156" s="1"/>
-      <c r="BF156" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG156" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BB156" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD156" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE156" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF156" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG156" s="1"/>
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
       <c r="BJ156" s="1"/>
@@ -18729,13 +18719,13 @@
     </row>
     <row r="157" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>3</v>
@@ -18814,25 +18804,23 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
-      <c r="BA157" s="1"/>
+      <c r="BA157" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB157" s="1"/>
       <c r="BC157" s="1"/>
       <c r="BD157" s="1"/>
       <c r="BE157" s="1"/>
-      <c r="BF157" s="1"/>
-      <c r="BG157" s="1"/>
-      <c r="BH157" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI157" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ157" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK157" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="BF157" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG157" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH157" s="1"/>
+      <c r="BI157" s="1"/>
+      <c r="BJ157" s="1"/>
+      <c r="BK157" s="1"/>
       <c r="BL157" s="1"/>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
@@ -18860,13 +18848,13 @@
     </row>
     <row r="158" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>314</v>
+        <v>150</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>3</v>
@@ -18946,15 +18934,24 @@
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
       <c r="BA158" s="1"/>
-      <c r="BB158" s="4"/>
-      <c r="BD158" s="2"/>
-      <c r="BE158" s="3"/>
-      <c r="BF158" s="2"/>
+      <c r="BB158" s="1"/>
+      <c r="BC158" s="1"/>
+      <c r="BD158" s="1"/>
+      <c r="BE158" s="1"/>
+      <c r="BF158" s="1"/>
       <c r="BG158" s="1"/>
-      <c r="BH158" s="1"/>
-      <c r="BI158" s="1"/>
-      <c r="BJ158" s="1"/>
-      <c r="BK158" s="1"/>
+      <c r="BH158" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI158" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ158" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK158" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
@@ -18981,32 +18978,56 @@
       </c>
     </row>
     <row r="159" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>242</v>
+      <c r="A159" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="C159" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="F159" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
+      <c r="J159" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="P159" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
       <c r="U159" s="1"/>
-      <c r="V159" s="1"/>
+      <c r="V159" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W159" s="1"/>
       <c r="X159" s="1"/>
       <c r="Y159" s="1"/>
@@ -19017,13 +19038,19 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
-      <c r="AG159" s="1"/>
+      <c r="AG159" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH159" s="1"/>
-      <c r="AI159" s="1"/>
+      <c r="AI159" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ159" s="1"/>
       <c r="AK159" s="1"/>
       <c r="AL159" s="1"/>
-      <c r="AM159" s="1"/>
+      <c r="AM159" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN159" s="1"/>
       <c r="AO159" s="1"/>
       <c r="AP159" s="1"/>
@@ -19038,14 +19065,13 @@
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
       <c r="BA159" s="1"/>
-      <c r="BB159" s="1"/>
-      <c r="BC159" s="1"/>
-      <c r="BD159" s="1"/>
-      <c r="BE159" s="1"/>
-      <c r="BF159" s="1"/>
+      <c r="BB159" s="4"/>
+      <c r="BD159" s="2"/>
+      <c r="BE159" s="3"/>
+      <c r="BF159" s="2"/>
       <c r="BG159" s="1"/>
       <c r="BH159" s="1"/>
-      <c r="BI159" s="11"/>
+      <c r="BI159" s="1"/>
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
       <c r="BL159" s="1"/>
@@ -19069,66 +19095,36 @@
       <c r="CD159" s="1"/>
       <c r="CE159" s="1"/>
       <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
+      <c r="CG159" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="160" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>250</v>
+      <c r="A160" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C160" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K160" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="M160" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
       <c r="O160" s="1"/>
-      <c r="P160" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q160" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="R160" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="S160" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T160" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="U160" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
@@ -19140,9 +19136,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="1" t="s">
-        <v>353</v>
-      </c>
+      <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
@@ -19162,21 +19156,12 @@
       <c r="AX160" s="1"/>
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
-      <c r="BA160" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB160" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD160" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE160" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF160" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA160" s="1"/>
+      <c r="BB160" s="1"/>
+      <c r="BC160" s="1"/>
+      <c r="BD160" s="1"/>
+      <c r="BE160" s="1"/>
+      <c r="BF160" s="1"/>
       <c r="BG160" s="1"/>
       <c r="BH160" s="1"/>
       <c r="BI160" s="11"/>
@@ -19202,14 +19187,12 @@
       <c r="CC160" s="1"/>
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
-      <c r="CF160" s="18"/>
-      <c r="CG160" t="s">
-        <v>368</v>
-      </c>
+      <c r="CF160" s="1"/>
+      <c r="CG160" s="1"/>
     </row>
     <row r="161" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>367</v>
@@ -19223,22 +19206,22 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>6</v>
+        <v>243</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>28</v>
@@ -19277,7 +19260,7 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
       <c r="AG161" s="1" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
@@ -19340,12 +19323,12 @@
       <c r="CE161" s="1"/>
       <c r="CF161" s="18"/>
       <c r="CG161" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="162" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>367</v>
@@ -19358,19 +19341,23 @@
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="1"/>
+      <c r="G162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I162" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="M162" s="2" t="s">
         <v>28</v>
@@ -19409,7 +19396,7 @@
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
       <c r="AG162" s="1" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
@@ -19430,12 +19417,21 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
-      <c r="BA162" s="1"/>
-      <c r="BB162" s="1"/>
-      <c r="BC162" s="12"/>
-      <c r="BD162" s="1"/>
-      <c r="BE162" s="1"/>
-      <c r="BF162" s="1"/>
+      <c r="BA162" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB162" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD162" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE162" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF162" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
       <c r="BI162" s="11"/>
@@ -19463,49 +19459,43 @@
       <c r="CE162" s="1"/>
       <c r="CF162" s="18"/>
       <c r="CG162" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="D163" s="11" t="s">
         <v>364</v>
       </c>
       <c r="E163" s="3"/>
-      <c r="F163" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="1"/>
       <c r="I163" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>376</v>
+        <v>317</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1" t="s">
@@ -19538,7 +19528,7 @@
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
       <c r="AG163" s="1" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
@@ -19596,20 +19586,22 @@
       </c>
     </row>
     <row r="164" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>254</v>
+      <c r="A164" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>364</v>
       </c>
       <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
+      <c r="F164" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="G164" s="3" t="s">
         <v>243</v>
       </c>
@@ -19620,19 +19612,19 @@
         <v>436</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>28</v>
+        <v>372</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
@@ -19665,7 +19657,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
@@ -19686,21 +19678,12 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
-      <c r="BA164" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB164" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD164" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE164" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF164" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA164" s="1"/>
+      <c r="BB164" s="1"/>
+      <c r="BC164" s="12"/>
+      <c r="BD164" s="1"/>
+      <c r="BE164" s="1"/>
+      <c r="BF164" s="1"/>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="11"/>
@@ -19733,7 +19716,7 @@
     </row>
     <row r="165" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>367</v>
@@ -19746,8 +19729,12 @@
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="1"/>
+      <c r="G165" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="I165" s="1" t="s">
         <v>436</v>
       </c>
@@ -19865,7 +19852,7 @@
     </row>
     <row r="166" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>367</v>
@@ -19997,38 +19984,32 @@
     </row>
     <row r="167" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="D167" s="11" t="s">
         <v>364</v>
       </c>
       <c r="E167" s="3"/>
-      <c r="F167" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="1"/>
       <c r="I167" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="K167" s="2" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="M167" s="2" t="s">
         <v>28</v>
@@ -20067,7 +20048,7 @@
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
       <c r="AG167" s="1" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
@@ -20119,14 +20100,14 @@
       <c r="BT167" s="1"/>
       <c r="BU167" s="1"/>
       <c r="BV167" s="1"/>
-      <c r="BW167" s="12"/>
-      <c r="BX167" s="12"/>
-      <c r="BY167" s="12"/>
-      <c r="BZ167" s="12"/>
-      <c r="CA167" s="12"/>
-      <c r="CB167" s="12"/>
-      <c r="CC167" s="12"/>
-      <c r="CD167" s="12"/>
+      <c r="BW167" s="1"/>
+      <c r="BX167" s="1"/>
+      <c r="BY167" s="1"/>
+      <c r="BZ167" s="1"/>
+      <c r="CA167" s="1"/>
+      <c r="CB167" s="1"/>
+      <c r="CC167" s="1"/>
+      <c r="CD167" s="1"/>
       <c r="CE167" s="1"/>
       <c r="CF167" s="18"/>
       <c r="CG167" t="s">
@@ -20135,40 +20116,64 @@
     </row>
     <row r="168" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C168" s="11" t="s">
-        <v>2</v>
+      <c r="C168" s="28" t="s">
+        <v>438</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
+      <c r="F168" s="11" t="s">
+        <v>364</v>
+      </c>
       <c r="G168" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>59</v>
+        <v>243</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J168" s="1"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="1"/>
+      <c r="J168" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="11"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="10"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
+      <c r="P168" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q168" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R168" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S168" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="V168" s="1"/>
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
@@ -20180,7 +20185,9 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
-      <c r="AG168" s="1"/>
+      <c r="AG168" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
@@ -20200,18 +20207,24 @@
       <c r="AX168" s="1"/>
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
-      <c r="BA168" s="1"/>
-      <c r="BB168" s="4"/>
-      <c r="BD168" s="2"/>
-      <c r="BE168" s="3"/>
-      <c r="BF168" s="2"/>
+      <c r="BA168" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB168" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD168" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE168" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF168" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG168" s="1"/>
-      <c r="BH168" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BI168" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="BH168" s="1"/>
+      <c r="BI168" s="11"/>
       <c r="BJ168" s="1"/>
       <c r="BK168" s="1"/>
       <c r="BL168" s="1"/>
@@ -20236,21 +20249,21 @@
       <c r="CE168" s="1"/>
       <c r="CF168" s="18"/>
       <c r="CG168" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="169" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C169" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D169" s="28" t="s">
-        <v>391</v>
+      <c r="C169" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -20263,28 +20276,16 @@
       <c r="I169" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K169" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M169" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N169" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="J169" s="1"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="1"/>
       <c r="O169" s="1"/>
-      <c r="P169" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="P169" s="1"/>
       <c r="Q169" s="11"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
       <c r="T169" s="1"/>
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
@@ -20318,9 +20319,7 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
-      <c r="BA169" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BA169" s="1"/>
       <c r="BB169" s="4"/>
       <c r="BD169" s="2"/>
       <c r="BE169" s="3"/>
@@ -20330,14 +20329,10 @@
         <v>288</v>
       </c>
       <c r="BI169" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="BJ169" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BK169" s="1" t="s">
-        <v>355</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="BJ169" s="1"/>
+      <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
       <c r="BM169" s="1"/>
       <c r="BN169" s="1"/>
@@ -20363,9 +20358,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="170" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>367</v>
@@ -20378,39 +20373,39 @@
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+      <c r="G170" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I170" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>295</v>
+        <v>1</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M170" s="2"/>
-      <c r="N170" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="R170" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="S170" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="T170" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="U170" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="P170" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q170" s="11"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
@@ -20422,9 +20417,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
@@ -20444,20 +20437,28 @@
       <c r="AX170" s="1"/>
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
-      <c r="BA170" s="1"/>
+      <c r="BA170" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BB170" s="4"/>
       <c r="BD170" s="2"/>
       <c r="BE170" s="3"/>
       <c r="BF170" s="2"/>
       <c r="BG170" s="1"/>
-      <c r="BH170" s="1"/>
-      <c r="BI170" s="11"/>
-      <c r="BJ170" s="1"/>
-      <c r="BK170" s="1"/>
+      <c r="BH170" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BI170" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ170" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BK170" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="BL170" s="1"/>
-      <c r="BM170" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
       <c r="BO170" s="1"/>
       <c r="BP170" s="1"/>
@@ -20481,50 +20482,54 @@
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>442</v>
+    <row r="171" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I171" s="1"/>
+      <c r="C171" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D171" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="J171" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K171" t="s">
-        <v>1</v>
+        <v>294</v>
+      </c>
+      <c r="K171" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M171" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N171" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M171" s="2"/>
+      <c r="N171" s="1"/>
       <c r="O171" s="1"/>
-      <c r="P171" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="R171" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="S171" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
@@ -20536,7 +20541,9 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
+      <c r="AG171" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -20556,25 +20563,20 @@
       <c r="AX171" s="1"/>
       <c r="AY171" s="1"/>
       <c r="AZ171" s="1"/>
-      <c r="BA171" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB171" s="1"/>
-      <c r="BC171" s="1"/>
-      <c r="BD171" s="1"/>
-      <c r="BE171" s="1"/>
-      <c r="BF171" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG171" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="BA171" s="1"/>
+      <c r="BB171" s="4"/>
+      <c r="BD171" s="2"/>
+      <c r="BE171" s="3"/>
+      <c r="BF171" s="2"/>
+      <c r="BG171" s="1"/>
       <c r="BH171" s="1"/>
-      <c r="BI171" s="1"/>
+      <c r="BI171" s="11"/>
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
-      <c r="BM171" s="1"/>
+      <c r="BM171" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="BN171" s="1"/>
       <c r="BO171" s="1"/>
       <c r="BP171" s="1"/>
@@ -20584,45 +20586,59 @@
       <c r="BT171" s="1"/>
       <c r="BU171" s="1"/>
       <c r="BV171" s="1"/>
-      <c r="BW171" s="1"/>
-      <c r="BX171" s="1"/>
-      <c r="BY171" s="1"/>
-      <c r="BZ171" s="1"/>
-      <c r="CA171" s="1"/>
-      <c r="CB171" s="1"/>
-      <c r="CC171" s="1"/>
-      <c r="CD171" s="1"/>
+      <c r="BW171" s="12"/>
+      <c r="BX171" s="12"/>
+      <c r="BY171" s="12"/>
+      <c r="BZ171" s="12"/>
+      <c r="CA171" s="12"/>
+      <c r="CB171" s="12"/>
+      <c r="CC171" s="12"/>
+      <c r="CD171" s="12"/>
       <c r="CE171" s="1"/>
-      <c r="CF171" s="1"/>
+      <c r="CF171" s="18"/>
       <c r="CG171" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="172" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>443</v>
+      <c r="A172" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C172" s="11"/>
+      <c r="C172" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="1" t="s">
+      <c r="G172" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>444</v>
+      <c r="H172" s="3" t="s">
+        <v>327</v>
       </c>
       <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
+      <c r="J172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>1</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
+      <c r="P172" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
@@ -20659,15 +20675,21 @@
       <c r="AX172" s="1"/>
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
-      <c r="BA172" s="1"/>
+      <c r="BA172" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB172" s="1"/>
       <c r="BC172" s="1"/>
       <c r="BD172" s="1"/>
       <c r="BE172" s="1"/>
-      <c r="BF172" s="1"/>
-      <c r="BG172" s="1"/>
+      <c r="BF172" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG172" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="BH172" s="1"/>
-      <c r="BI172" s="11"/>
+      <c r="BI172" s="1"/>
       <c r="BJ172" s="1"/>
       <c r="BK172" s="1"/>
       <c r="BL172" s="1"/>
@@ -20690,50 +20712,36 @@
       <c r="CC172" s="1"/>
       <c r="CD172" s="1"/>
       <c r="CE172" s="1"/>
-      <c r="CF172" s="18"/>
+      <c r="CF172" s="1"/>
       <c r="CG172" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>445</v>
+      <c r="A173" s="7" t="s">
+        <v>443</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>331</v>
-      </c>
+      <c r="C173" s="11"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="2" t="s">
+      <c r="G173" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="1" t="s">
         <v>444</v>
       </c>
       <c r="I173" s="1"/>
-      <c r="J173" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K173" t="s">
-        <v>1</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M173" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N173" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
       <c r="O173" s="1"/>
-      <c r="P173" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
@@ -20776,9 +20784,9 @@
       <c r="BD173" s="1"/>
       <c r="BE173" s="1"/>
       <c r="BF173" s="1"/>
-      <c r="BG173" s="4"/>
+      <c r="BG173" s="1"/>
       <c r="BH173" s="1"/>
-      <c r="BI173" s="1"/>
+      <c r="BI173" s="11"/>
       <c r="BJ173" s="1"/>
       <c r="BK173" s="1"/>
       <c r="BL173" s="1"/>
@@ -20801,28 +20809,50 @@
       <c r="CC173" s="1"/>
       <c r="CD173" s="1"/>
       <c r="CE173" s="1"/>
-      <c r="CF173" s="1"/>
+      <c r="CF173" s="18"/>
       <c r="CG173" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="174" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A174" s="7"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
+      <c r="G174" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
+      <c r="J174" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>1</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
+      <c r="P174" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -20865,9 +20895,9 @@
       <c r="BD174" s="1"/>
       <c r="BE174" s="1"/>
       <c r="BF174" s="1"/>
-      <c r="BG174" s="1"/>
+      <c r="BG174" s="4"/>
       <c r="BH174" s="1"/>
-      <c r="BI174" s="11"/>
+      <c r="BI174" s="1"/>
       <c r="BJ174" s="1"/>
       <c r="BK174" s="1"/>
       <c r="BL174" s="1"/>
@@ -20891,7 +20921,9 @@
       <c r="CD174" s="1"/>
       <c r="CE174" s="1"/>
       <c r="CF174" s="1"/>
-      <c r="CG174" s="1"/>
+      <c r="CG174" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="175" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A175" s="7"/>
@@ -22027,7 +22059,7 @@
     <row r="188" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="1"/>
-      <c r="C188" s="11"/>
+      <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -23852,91 +23884,91 @@
       <c r="CG208" s="1"/>
     </row>
     <row r="209" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A209" s="8"/>
-      <c r="B209" s="2"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="2"/>
-      <c r="E209" s="2"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
-      <c r="AA209" s="2"/>
-      <c r="AB209" s="2"/>
-      <c r="AC209" s="2"/>
-      <c r="AD209" s="2"/>
-      <c r="AE209" s="2"/>
-      <c r="AF209" s="2"/>
-      <c r="AG209" s="2"/>
-      <c r="AH209" s="2"/>
-      <c r="AI209" s="2"/>
-      <c r="AJ209" s="2"/>
-      <c r="AK209" s="2"/>
-      <c r="AL209" s="2"/>
-      <c r="AM209" s="2"/>
-      <c r="AN209" s="2"/>
-      <c r="AO209" s="2"/>
-      <c r="AP209" s="2"/>
-      <c r="AQ209" s="2"/>
-      <c r="AR209" s="2"/>
-      <c r="AS209" s="2"/>
-      <c r="AT209" s="2"/>
-      <c r="AU209" s="2"/>
-      <c r="AV209" s="2"/>
-      <c r="AW209" s="2"/>
-      <c r="AX209" s="2"/>
-      <c r="AY209" s="2"/>
-      <c r="AZ209" s="2"/>
-      <c r="BA209" s="2"/>
-      <c r="BB209" s="2"/>
-      <c r="BC209" s="2"/>
-      <c r="BD209" s="2"/>
-      <c r="BE209" s="2"/>
-      <c r="BF209" s="2"/>
-      <c r="BG209" s="2"/>
-      <c r="BH209" s="2"/>
-      <c r="BI209" s="3"/>
-      <c r="BJ209" s="2"/>
-      <c r="BK209" s="2"/>
-      <c r="BL209" s="2"/>
-      <c r="BM209" s="2"/>
-      <c r="BN209" s="2"/>
-      <c r="BO209" s="2"/>
-      <c r="BP209" s="2"/>
-      <c r="BQ209" s="2"/>
-      <c r="BR209" s="2"/>
-      <c r="BS209" s="2"/>
-      <c r="BT209" s="2"/>
-      <c r="BU209" s="2"/>
-      <c r="BV209" s="2"/>
-      <c r="BW209" s="2"/>
-      <c r="BX209" s="2"/>
-      <c r="BY209" s="2"/>
-      <c r="BZ209" s="2"/>
-      <c r="CA209" s="2"/>
-      <c r="CB209" s="2"/>
-      <c r="CC209" s="2"/>
-      <c r="CD209" s="2"/>
-      <c r="CE209" s="2"/>
-      <c r="CF209" s="2"/>
-      <c r="CG209" s="2"/>
+      <c r="A209" s="7"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="11"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="X209" s="1"/>
+      <c r="Y209" s="1"/>
+      <c r="Z209" s="1"/>
+      <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
+      <c r="AC209" s="1"/>
+      <c r="AD209" s="1"/>
+      <c r="AE209" s="1"/>
+      <c r="AF209" s="1"/>
+      <c r="AG209" s="1"/>
+      <c r="AH209" s="1"/>
+      <c r="AI209" s="1"/>
+      <c r="AJ209" s="1"/>
+      <c r="AK209" s="1"/>
+      <c r="AL209" s="1"/>
+      <c r="AM209" s="1"/>
+      <c r="AN209" s="1"/>
+      <c r="AO209" s="1"/>
+      <c r="AP209" s="1"/>
+      <c r="AQ209" s="1"/>
+      <c r="AR209" s="1"/>
+      <c r="AS209" s="1"/>
+      <c r="AT209" s="1"/>
+      <c r="AU209" s="1"/>
+      <c r="AV209" s="1"/>
+      <c r="AW209" s="1"/>
+      <c r="AX209" s="1"/>
+      <c r="AY209" s="1"/>
+      <c r="AZ209" s="1"/>
+      <c r="BA209" s="1"/>
+      <c r="BB209" s="1"/>
+      <c r="BC209" s="1"/>
+      <c r="BD209" s="1"/>
+      <c r="BE209" s="1"/>
+      <c r="BF209" s="1"/>
+      <c r="BG209" s="1"/>
+      <c r="BH209" s="1"/>
+      <c r="BI209" s="11"/>
+      <c r="BJ209" s="1"/>
+      <c r="BK209" s="1"/>
+      <c r="BL209" s="1"/>
+      <c r="BM209" s="1"/>
+      <c r="BN209" s="1"/>
+      <c r="BO209" s="1"/>
+      <c r="BP209" s="1"/>
+      <c r="BQ209" s="1"/>
+      <c r="BR209" s="1"/>
+      <c r="BS209" s="1"/>
+      <c r="BT209" s="1"/>
+      <c r="BU209" s="1"/>
+      <c r="BV209" s="1"/>
+      <c r="BW209" s="1"/>
+      <c r="BX209" s="1"/>
+      <c r="BY209" s="1"/>
+      <c r="BZ209" s="1"/>
+      <c r="CA209" s="1"/>
+      <c r="CB209" s="1"/>
+      <c r="CC209" s="1"/>
+      <c r="CD209" s="1"/>
+      <c r="CE209" s="1"/>
+      <c r="CF209" s="1"/>
+      <c r="CG209" s="1"/>
     </row>
     <row r="210" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A210" s="8"/>
@@ -29333,7 +29365,7 @@
       <c r="CG271" s="2"/>
     </row>
     <row r="272" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
+      <c r="A272" s="8"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
       <c r="D272" s="2"/>
@@ -30202,6 +30234,93 @@
       <c r="CF281" s="2"/>
       <c r="CG281" s="2"/>
     </row>
+    <row r="282" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+      <c r="M282" s="2"/>
+      <c r="N282" s="2"/>
+      <c r="O282" s="2"/>
+      <c r="P282" s="2"/>
+      <c r="Q282" s="2"/>
+      <c r="R282" s="2"/>
+      <c r="S282" s="2"/>
+      <c r="T282" s="2"/>
+      <c r="U282" s="2"/>
+      <c r="V282" s="2"/>
+      <c r="W282" s="2"/>
+      <c r="X282" s="2"/>
+      <c r="Y282" s="2"/>
+      <c r="Z282" s="2"/>
+      <c r="AA282" s="2"/>
+      <c r="AB282" s="2"/>
+      <c r="AC282" s="2"/>
+      <c r="AD282" s="2"/>
+      <c r="AE282" s="2"/>
+      <c r="AF282" s="2"/>
+      <c r="AG282" s="2"/>
+      <c r="AH282" s="2"/>
+      <c r="AI282" s="2"/>
+      <c r="AJ282" s="2"/>
+      <c r="AK282" s="2"/>
+      <c r="AL282" s="2"/>
+      <c r="AM282" s="2"/>
+      <c r="AN282" s="2"/>
+      <c r="AO282" s="2"/>
+      <c r="AP282" s="2"/>
+      <c r="AQ282" s="2"/>
+      <c r="AR282" s="2"/>
+      <c r="AS282" s="2"/>
+      <c r="AT282" s="2"/>
+      <c r="AU282" s="2"/>
+      <c r="AV282" s="2"/>
+      <c r="AW282" s="2"/>
+      <c r="AX282" s="2"/>
+      <c r="AY282" s="2"/>
+      <c r="AZ282" s="2"/>
+      <c r="BA282" s="2"/>
+      <c r="BB282" s="2"/>
+      <c r="BC282" s="2"/>
+      <c r="BD282" s="2"/>
+      <c r="BE282" s="2"/>
+      <c r="BF282" s="2"/>
+      <c r="BG282" s="2"/>
+      <c r="BH282" s="2"/>
+      <c r="BI282" s="3"/>
+      <c r="BJ282" s="2"/>
+      <c r="BK282" s="2"/>
+      <c r="BL282" s="2"/>
+      <c r="BM282" s="2"/>
+      <c r="BN282" s="2"/>
+      <c r="BO282" s="2"/>
+      <c r="BP282" s="2"/>
+      <c r="BQ282" s="2"/>
+      <c r="BR282" s="2"/>
+      <c r="BS282" s="2"/>
+      <c r="BT282" s="2"/>
+      <c r="BU282" s="2"/>
+      <c r="BV282" s="2"/>
+      <c r="BW282" s="2"/>
+      <c r="BX282" s="2"/>
+      <c r="BY282" s="2"/>
+      <c r="BZ282" s="2"/>
+      <c r="CA282" s="2"/>
+      <c r="CB282" s="2"/>
+      <c r="CC282" s="2"/>
+      <c r="CD282" s="2"/>
+      <c r="CE282" s="2"/>
+      <c r="CF282" s="2"/>
+      <c r="CG282" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BM25" r:id="rId1" display="abc@test.com"/>
@@ -30224,7 +30343,7 @@
     <hyperlink ref="C72" r:id="rId18"/>
     <hyperlink ref="C25" r:id="rId19"/>
     <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="C163" r:id="rId21"/>
+    <hyperlink ref="C164" r:id="rId21"/>
     <hyperlink ref="C78" r:id="rId22"/>
     <hyperlink ref="AU78" r:id="rId23" display="Ankit@12345"/>
     <hyperlink ref="C76" r:id="rId24"/>
@@ -30236,30 +30355,30 @@
     <hyperlink ref="C95" r:id="rId30"/>
     <hyperlink ref="C91" r:id="rId31"/>
     <hyperlink ref="C94" r:id="rId32"/>
-    <hyperlink ref="C145" r:id="rId33"/>
-    <hyperlink ref="D145" r:id="rId34" display="Deepika@1234"/>
-    <hyperlink ref="C155" r:id="rId35"/>
-    <hyperlink ref="C156" r:id="rId36"/>
-    <hyperlink ref="C157" r:id="rId37"/>
-    <hyperlink ref="C158" r:id="rId38"/>
-    <hyperlink ref="C160" r:id="rId39"/>
-    <hyperlink ref="C167" r:id="rId40"/>
-    <hyperlink ref="C169" r:id="rId41"/>
-    <hyperlink ref="C170" r:id="rId42"/>
-    <hyperlink ref="D169" r:id="rId43"/>
-    <hyperlink ref="D170" r:id="rId44"/>
+    <hyperlink ref="C146" r:id="rId33"/>
+    <hyperlink ref="D146" r:id="rId34" display="Deepika@1234"/>
+    <hyperlink ref="C156" r:id="rId35"/>
+    <hyperlink ref="C157" r:id="rId36"/>
+    <hyperlink ref="C158" r:id="rId37"/>
+    <hyperlink ref="C159" r:id="rId38"/>
+    <hyperlink ref="C161" r:id="rId39"/>
+    <hyperlink ref="C168" r:id="rId40"/>
+    <hyperlink ref="C170" r:id="rId41"/>
+    <hyperlink ref="C171" r:id="rId42"/>
+    <hyperlink ref="D170" r:id="rId43"/>
+    <hyperlink ref="D171" r:id="rId44"/>
     <hyperlink ref="C54" r:id="rId45"/>
-    <hyperlink ref="C151" r:id="rId46"/>
-    <hyperlink ref="C152" r:id="rId47"/>
-    <hyperlink ref="C153" r:id="rId48"/>
-    <hyperlink ref="C140" r:id="rId49"/>
-    <hyperlink ref="C141" r:id="rId50"/>
-    <hyperlink ref="AM130" r:id="rId51"/>
-    <hyperlink ref="C161" r:id="rId52"/>
-    <hyperlink ref="C162" r:id="rId53"/>
-    <hyperlink ref="C164" r:id="rId54"/>
-    <hyperlink ref="C165" r:id="rId55"/>
-    <hyperlink ref="C166" r:id="rId56"/>
+    <hyperlink ref="C152" r:id="rId46"/>
+    <hyperlink ref="C153" r:id="rId47"/>
+    <hyperlink ref="C154" r:id="rId48"/>
+    <hyperlink ref="C141" r:id="rId49"/>
+    <hyperlink ref="C142" r:id="rId50"/>
+    <hyperlink ref="AM131" r:id="rId51"/>
+    <hyperlink ref="C162" r:id="rId52"/>
+    <hyperlink ref="C163" r:id="rId53"/>
+    <hyperlink ref="C165" r:id="rId54"/>
+    <hyperlink ref="C166" r:id="rId55"/>
+    <hyperlink ref="C167" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId57"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Dependencies" sheetId="6" r:id="rId2"/>
     <sheet name="updates" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="455">
   <si>
     <t>Ankit</t>
   </si>
@@ -1360,6 +1361,27 @@
   </si>
   <si>
     <t>BRANDS</t>
+  </si>
+  <si>
+    <t>SS_PLP_Verify_L2L3_Refinements_Functionality</t>
+  </si>
+  <si>
+    <t>WOMEN</t>
+  </si>
+  <si>
+    <t>WESTERNWEAR</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Capris &amp; Shorts</t>
+  </si>
+  <si>
+    <t>SS_PLP_Verify_L2L3_Double_Functionality</t>
+  </si>
+  <si>
+    <t>Relevance,Popular,New,Discount,Price : Low,High</t>
   </si>
 </sst>
 </file>
@@ -1982,13 +2004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CG282"/>
+  <dimension ref="A1:CG284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,6 +2018,7 @@
     <col min="1" max="1" width="98.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="34.140625" style="14" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
     <col min="37" max="37" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="61" max="61" width="23.140625" style="14" collapsed="1"/>
   </cols>
@@ -4907,7 +4930,9 @@
       <c r="H30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5890,7 +5915,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>76</v>
       </c>
@@ -5987,9 +6012,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>367</v>
@@ -5999,10 +6024,10 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>59</v>
+        <v>450</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -6024,8 +6049,12 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="1"/>
@@ -6084,9 +6113,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>367</v>
@@ -6096,10 +6125,10 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>53</v>
+        <v>449</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>59</v>
+        <v>450</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -6115,26 +6144,18 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA42" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
@@ -6193,9 +6214,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="43" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>367</v>
@@ -6230,15 +6251,9 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE43" s="1" t="s">
-        <v>393</v>
-      </c>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
@@ -6293,12 +6308,12 @@
       <c r="CE43" s="1"/>
       <c r="CF43" s="18"/>
       <c r="CG43" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>367</v>
@@ -6327,12 +6342,24 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
+      <c r="W44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6393,9 +6420,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>367</v>
@@ -6430,9 +6457,15 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
+      <c r="AC45" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
@@ -6487,22 +6520,18 @@
       <c r="CE45" s="1"/>
       <c r="CF45" s="18"/>
       <c r="CG45" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="46" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
@@ -6591,19 +6620,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="47" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
@@ -6692,19 +6717,27 @@
         <v>366</v>
       </c>
     </row>
-    <row r="48" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>85</v>
+    <row r="48" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="1"/>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -6781,17 +6814,23 @@
       <c r="CD48" s="1"/>
       <c r="CE48" s="1"/>
       <c r="CF48" s="18"/>
-      <c r="CG48" s="2"/>
-    </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="1"/>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -6880,27 +6919,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>87</v>
+    <row r="50" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -6977,23 +7008,17 @@
       <c r="CD50" s="1"/>
       <c r="CE50" s="1"/>
       <c r="CF50" s="18"/>
-      <c r="CG50" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG50" s="2"/>
+    </row>
+    <row r="51" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
@@ -7082,14 +7107,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>349</v>
+        <v>87</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -7179,20 +7204,22 @@
       <c r="CD52" s="1"/>
       <c r="CE52" s="1"/>
       <c r="CF52" s="18"/>
-      <c r="CG52" s="2"/>
-    </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>6</v>
+      <c r="C53" t="s">
+        <v>2</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -7282,14 +7309,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>90</v>
+        <v>349</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -7379,19 +7406,21 @@
       <c r="CD54" s="1"/>
       <c r="CE54" s="1"/>
       <c r="CF54" s="18"/>
-      <c r="CG54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG54" s="2"/>
+    </row>
+    <row r="55" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="1"/>
+      <c r="C55" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1" t="s">
@@ -7480,14 +7509,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -7577,21 +7606,19 @@
       <c r="CD56" s="1"/>
       <c r="CE56" s="1"/>
       <c r="CF56" s="18"/>
-      <c r="CG56" s="2"/>
-    </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -7655,14 +7682,10 @@
       <c r="BI57" s="11"/>
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
-      <c r="BL57" s="11" t="s">
-        <v>276</v>
-      </c>
+      <c r="BL57" s="1"/>
       <c r="BM57" s="1"/>
       <c r="BN57" s="1"/>
-      <c r="BO57" s="11" t="s">
-        <v>277</v>
-      </c>
+      <c r="BO57" s="1"/>
       <c r="BP57" s="1"/>
       <c r="BQ57" s="1"/>
       <c r="BR57" s="1"/>
@@ -7684,14 +7707,14 @@
         <v>366</v>
       </c>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>93</v>
+        <v>350</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -7716,9 +7739,7 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
@@ -7783,19 +7804,21 @@
       <c r="CD58" s="1"/>
       <c r="CE58" s="1"/>
       <c r="CF58" s="18"/>
-      <c r="CG58" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG58" s="2"/>
+    </row>
+    <row r="59" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="1"/>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
@@ -7805,9 +7828,7 @@
         <v>59</v>
       </c>
       <c r="I59" s="1"/>
-      <c r="J59" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -7830,9 +7851,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1" t="s">
-        <v>231</v>
-      </c>
+      <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -7863,25 +7882,21 @@
       <c r="BI59" s="11"/>
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
-      <c r="BL59" s="1"/>
+      <c r="BL59" s="11" t="s">
+        <v>276</v>
+      </c>
       <c r="BM59" s="1"/>
       <c r="BN59" s="1"/>
-      <c r="BO59" s="1"/>
+      <c r="BO59" s="11" t="s">
+        <v>277</v>
+      </c>
       <c r="BP59" s="1"/>
       <c r="BQ59" s="1"/>
       <c r="BR59" s="1"/>
-      <c r="BS59" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BT59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU59" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BV59" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="BS59" s="1"/>
+      <c r="BT59" s="1"/>
+      <c r="BU59" s="1"/>
+      <c r="BV59" s="1"/>
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
       <c r="BY59" s="1"/>
@@ -7896,15 +7911,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="1"/>
+      <c r="C60" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
@@ -7914,9 +7933,7 @@
         <v>59</v>
       </c>
       <c r="I60" s="1"/>
-      <c r="J60" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -7926,7 +7943,9 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
       <c r="W60" s="1"/>
@@ -7939,9 +7958,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
@@ -7979,18 +7996,10 @@
       <c r="BP60" s="1"/>
       <c r="BQ60" s="1"/>
       <c r="BR60" s="1"/>
-      <c r="BS60" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BT60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BV60" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BS60" s="1"/>
+      <c r="BT60" s="1"/>
+      <c r="BU60" s="1"/>
+      <c r="BV60" s="1"/>
       <c r="BW60" s="1"/>
       <c r="BX60" s="1"/>
       <c r="BY60" s="1"/>
@@ -8005,19 +8014,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
@@ -8027,15 +8032,15 @@
         <v>59</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -8052,10 +8057,10 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1" t="s">
-        <v>274</v>
-      </c>
+      <c r="AG61" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
@@ -8087,17 +8092,23 @@
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1"/>
-      <c r="BN61" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="BN61" s="1"/>
       <c r="BO61" s="1"/>
       <c r="BP61" s="1"/>
       <c r="BQ61" s="1"/>
       <c r="BR61" s="1"/>
-      <c r="BS61" s="1"/>
-      <c r="BT61" s="1"/>
-      <c r="BU61" s="1"/>
-      <c r="BV61" s="1"/>
+      <c r="BS61" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BT61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU61" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BV61" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
@@ -8112,19 +8123,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
@@ -8134,7 +8141,9 @@
         <v>59</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
@@ -8157,7 +8166,9 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
+      <c r="AG62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -8191,16 +8202,22 @@
       <c r="BL62" s="1"/>
       <c r="BM62" s="1"/>
       <c r="BN62" s="1"/>
-      <c r="BO62" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BO62" s="1"/>
       <c r="BP62" s="1"/>
       <c r="BQ62" s="1"/>
       <c r="BR62" s="1"/>
-      <c r="BS62" s="1"/>
-      <c r="BT62" s="1"/>
-      <c r="BU62" s="1"/>
-      <c r="BV62" s="1"/>
+      <c r="BS62" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BT62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
@@ -8215,19 +8232,27 @@
         <v>366</v>
       </c>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>233</v>
+    <row r="63" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -8235,7 +8260,9 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="P63" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -8253,7 +8280,9 @@
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
       <c r="AG63" s="1"/>
-      <c r="AH63" s="1"/>
+      <c r="AH63" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
@@ -8280,12 +8309,14 @@
       <c r="BF63" s="1"/>
       <c r="BG63" s="1"/>
       <c r="BH63" s="1"/>
-      <c r="BI63" s="1"/>
+      <c r="BI63" s="11"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1"/>
-      <c r="BN63" s="1"/>
+      <c r="BN63" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="BO63" s="1"/>
       <c r="BP63" s="1"/>
       <c r="BQ63" s="1"/>
@@ -8303,28 +8334,32 @@
       <c r="CC63" s="1"/>
       <c r="CD63" s="1"/>
       <c r="CE63" s="1"/>
-      <c r="CF63" s="1"/>
-      <c r="CG63" s="1"/>
-    </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF63" s="18"/>
+      <c r="CG63" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -8377,13 +8412,15 @@
       <c r="BF64" s="1"/>
       <c r="BG64" s="1"/>
       <c r="BH64" s="1"/>
-      <c r="BI64" s="1"/>
+      <c r="BI64" s="11"/>
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
       <c r="BN64" s="1"/>
-      <c r="BO64" s="1"/>
+      <c r="BO64" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="BP64" s="1"/>
       <c r="BQ64" s="1"/>
       <c r="BR64" s="1"/>
@@ -8400,40 +8437,28 @@
       <c r="CC64" s="1"/>
       <c r="CD64" s="1"/>
       <c r="CE64" s="1"/>
-      <c r="CF64" s="1"/>
+      <c r="CF64" s="18"/>
       <c r="CG64" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>8</v>
+    <row r="65" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
-        <v>364</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>365</v>
-      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
@@ -8443,9 +8468,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
-      <c r="V65" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
@@ -8508,39 +8531,31 @@
       <c r="CD65" s="1"/>
       <c r="CE65" s="1"/>
       <c r="CF65" s="1"/>
-      <c r="CG65" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG65" s="1"/>
+    </row>
+    <row r="66" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>299</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" t="s">
-        <v>234</v>
-      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
@@ -8550,9 +8565,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
-      <c r="V66" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
@@ -8605,40 +8618,49 @@
       <c r="BT66" s="1"/>
       <c r="BU66" s="1"/>
       <c r="BV66" s="1"/>
-      <c r="BW66" s="12"/>
-      <c r="BX66" s="12"/>
-      <c r="BY66" s="12"/>
-      <c r="BZ66" s="12"/>
-      <c r="CA66" s="12"/>
+      <c r="BW66" s="1"/>
+      <c r="BX66" s="1"/>
+      <c r="BY66" s="1"/>
+      <c r="BZ66" s="1"/>
+      <c r="CA66" s="1"/>
+      <c r="CB66" s="1"/>
       <c r="CC66" s="1"/>
       <c r="CD66" s="1"/>
       <c r="CE66" s="1"/>
       <c r="CF66" s="1"/>
       <c r="CG66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>6</v>
+      <c r="C67" s="26" t="s">
+        <v>363</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="J67" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -8648,7 +8670,9 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
+      <c r="V67" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
@@ -8706,9 +8730,7 @@
       <c r="BY67" s="1"/>
       <c r="BZ67" s="1"/>
       <c r="CA67" s="1"/>
-      <c r="CB67" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="CB67" s="1"/>
       <c r="CC67" s="1"/>
       <c r="CD67" s="1"/>
       <c r="CE67" s="1"/>
@@ -8717,27 +8739,35 @@
         <v>366</v>
       </c>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" t="s">
+        <v>234</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="J68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -8747,7 +8777,9 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
+      <c r="V68" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
@@ -8800,34 +8832,31 @@
       <c r="BT68" s="1"/>
       <c r="BU68" s="1"/>
       <c r="BV68" s="1"/>
-      <c r="BW68" s="1"/>
-      <c r="BX68" s="1"/>
-      <c r="BY68" s="1"/>
-      <c r="BZ68" s="1"/>
-      <c r="CA68" s="1"/>
-      <c r="CB68" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="BW68" s="12"/>
+      <c r="BX68" s="12"/>
+      <c r="BY68" s="12"/>
+      <c r="BZ68" s="12"/>
+      <c r="CA68" s="12"/>
       <c r="CC68" s="1"/>
       <c r="CD68" s="1"/>
       <c r="CE68" s="1"/>
       <c r="CF68" s="1"/>
       <c r="CG68" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C69" s="26" t="s">
-        <v>2</v>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>234</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -8904,8 +8933,8 @@
       <c r="BY69" s="1"/>
       <c r="BZ69" s="1"/>
       <c r="CA69" s="1"/>
-      <c r="CB69" s="1" t="s">
-        <v>301</v>
+      <c r="CB69" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="CC69" s="1"/>
       <c r="CD69" s="1"/>
@@ -8915,18 +8944,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -9003,7 +9032,9 @@
       <c r="BY70" s="1"/>
       <c r="BZ70" s="1"/>
       <c r="CA70" s="1"/>
-      <c r="CB70" s="1"/>
+      <c r="CB70" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="CC70" s="1"/>
       <c r="CD70" s="1"/>
       <c r="CE70" s="1"/>
@@ -9012,18 +9043,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>3</v>
+        <v>234</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -9100,7 +9131,9 @@
       <c r="BY71" s="1"/>
       <c r="BZ71" s="1"/>
       <c r="CA71" s="1"/>
-      <c r="CB71" s="1"/>
+      <c r="CB71" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="CC71" s="1"/>
       <c r="CD71" s="1"/>
       <c r="CE71" s="1"/>
@@ -9109,17 +9142,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="D72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -9204,15 +9239,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -9297,14 +9336,16 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="26" t="s">
+        <v>302</v>
+      </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -9390,9 +9431,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>235</v>
+    <row r="75" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>367</v>
@@ -9479,21 +9520,19 @@
       <c r="CD75" s="1"/>
       <c r="CE75" s="1"/>
       <c r="CF75" s="1"/>
-      <c r="CG75" s="1"/>
-    </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>15</v>
+      <c r="CG75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C76" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -9575,22 +9614,18 @@
       <c r="CE76" s="1"/>
       <c r="CF76" s="1"/>
       <c r="CG76" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C77" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -9671,22 +9706,20 @@
       <c r="CD77" s="1"/>
       <c r="CE77" s="1"/>
       <c r="CF77" s="1"/>
-      <c r="CG77" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="78" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+      <c r="CG77" s="1"/>
+    </row>
+    <row r="78" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>364</v>
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -9730,9 +9763,7 @@
       <c r="AR78" s="1"/>
       <c r="AS78" s="1"/>
       <c r="AT78" s="1"/>
-      <c r="AU78" s="27" t="s">
-        <v>439</v>
-      </c>
+      <c r="AU78" s="1"/>
       <c r="AV78" s="1"/>
       <c r="AW78" s="1"/>
       <c r="AX78" s="1"/>
@@ -9765,20 +9796,18 @@
       <c r="BY78" s="1"/>
       <c r="BZ78" s="1"/>
       <c r="CA78" s="1"/>
-      <c r="CB78" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="CB78" s="1"/>
       <c r="CC78" s="1"/>
       <c r="CD78" s="1"/>
       <c r="CE78" s="1"/>
       <c r="CF78" s="1"/>
       <c r="CG78" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="79" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>367</v>
@@ -9789,9 +9818,7 @@
       <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -9875,22 +9902,20 @@
         <v>368</v>
       </c>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -9932,7 +9957,9 @@
       <c r="AR80" s="1"/>
       <c r="AS80" s="1"/>
       <c r="AT80" s="1"/>
-      <c r="AU80" s="1"/>
+      <c r="AU80" s="27" t="s">
+        <v>439</v>
+      </c>
       <c r="AV80" s="1"/>
       <c r="AW80" s="1"/>
       <c r="AX80" s="1"/>
@@ -9965,18 +9992,20 @@
       <c r="BY80" s="1"/>
       <c r="BZ80" s="1"/>
       <c r="CA80" s="1"/>
-      <c r="CB80" s="1"/>
+      <c r="CB80" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="CC80" s="1"/>
       <c r="CD80" s="1"/>
       <c r="CE80" s="1"/>
       <c r="CF80" s="1"/>
       <c r="CG80" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>367</v>
@@ -10073,9 +10102,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>367</v>
@@ -10090,12 +10119,8 @@
         <v>0</v>
       </c>
       <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
@@ -10176,15 +10201,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>321</v>
+      <c r="C83" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
@@ -10275,9 +10300,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>367</v>
@@ -10292,8 +10317,12 @@
         <v>0</v>
       </c>
       <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -10374,15 +10403,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C85" s="26" t="s">
-        <v>2</v>
+      <c r="C85" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
@@ -10391,12 +10420,8 @@
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
-      <c r="G85" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>322</v>
-      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -10474,12 +10499,12 @@
       <c r="CE85" s="1"/>
       <c r="CF85" s="1"/>
       <c r="CG85" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>367</v>
@@ -10494,12 +10519,8 @@
         <v>0</v>
       </c>
       <c r="F86" s="1"/>
-      <c r="G86" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>323</v>
-      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -10577,12 +10598,12 @@
       <c r="CE86" s="1"/>
       <c r="CF86" s="1"/>
       <c r="CG86" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>367</v>
@@ -10601,7 +10622,7 @@
         <v>53</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -10683,9 +10704,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>367</v>
@@ -10700,8 +10721,12 @@
         <v>0</v>
       </c>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="G88" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -10779,12 +10804,12 @@
       <c r="CE88" s="1"/>
       <c r="CF88" s="1"/>
       <c r="CG88" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>367</v>
@@ -10799,8 +10824,12 @@
         <v>0</v>
       </c>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>326</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -10878,12 +10907,12 @@
       <c r="CE89" s="1"/>
       <c r="CF89" s="1"/>
       <c r="CG89" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>367</v>
@@ -10931,6 +10960,7 @@
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
+      <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
       <c r="AQ90" s="1"/>
@@ -10940,6 +10970,9 @@
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
+      <c r="AX90" s="1"/>
+      <c r="AY90" s="1"/>
+      <c r="AZ90" s="1"/>
       <c r="BA90" s="1"/>
       <c r="BB90" s="1"/>
       <c r="BC90" s="1"/>
@@ -10976,9 +11009,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>367</v>
@@ -11026,13 +11059,9 @@
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
-      <c r="AN91" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
-      <c r="AP91" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AP91" s="1"/>
       <c r="AQ91" s="1"/>
       <c r="AR91" s="1"/>
       <c r="AS91" s="1"/>
@@ -11070,20 +11099,18 @@
       <c r="BY91" s="1"/>
       <c r="BZ91" s="1"/>
       <c r="CA91" s="1"/>
-      <c r="CB91" s="1" t="s">
-        <v>309</v>
-      </c>
+      <c r="CB91" s="1"/>
       <c r="CC91" s="1"/>
       <c r="CD91" s="1"/>
       <c r="CE91" s="1"/>
       <c r="CF91" s="1"/>
       <c r="CG91" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>367</v>
@@ -11101,27 +11128,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K92" t="s">
-        <v>381</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -11145,7 +11158,6 @@
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
-      <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
       <c r="AQ92" s="1"/>
@@ -11155,9 +11167,6 @@
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
-      <c r="AX92" s="1"/>
-      <c r="AY92" s="1"/>
-      <c r="AZ92" s="1"/>
       <c r="BA92" s="1"/>
       <c r="BB92" s="1"/>
       <c r="BC92" s="1"/>
@@ -11194,9 +11203,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>99</v>
+    <row r="93" spans="1:85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>367</v>
@@ -11214,27 +11223,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K93" t="s">
-        <v>381</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -11259,14 +11254,14 @@
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
       <c r="AN93" s="1" t="s">
-        <v>100</v>
+        <v>358</v>
       </c>
       <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
+      <c r="AP93" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ93" s="1"/>
-      <c r="AR93" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="AR93" s="1"/>
       <c r="AS93" s="1"/>
       <c r="AT93" s="1"/>
       <c r="AU93" s="1"/>
@@ -11302,18 +11297,20 @@
       <c r="BY93" s="1"/>
       <c r="BZ93" s="1"/>
       <c r="CA93" s="1"/>
-      <c r="CB93" s="1"/>
+      <c r="CB93" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="CC93" s="1"/>
       <c r="CD93" s="1"/>
       <c r="CE93" s="1"/>
       <c r="CF93" s="1"/>
       <c r="CG93" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="94" spans="1:85" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>367</v>
@@ -11331,7 +11328,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K94" t="s">
@@ -11340,7 +11337,7 @@
       <c r="L94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="1" t="s">
         <v>28</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -11368,27 +11365,13 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
-      <c r="AG94" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH94" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI94" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ94" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK94" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL94" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM94" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG94" s="1"/>
+      <c r="AH94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AJ94" s="1"/>
+      <c r="AK94" s="1"/>
+      <c r="AL94" s="1"/>
+      <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
       <c r="AP94" s="1"/>
@@ -11429,9 +11412,7 @@
       <c r="BY94" s="1"/>
       <c r="BZ94" s="1"/>
       <c r="CA94" s="1"/>
-      <c r="CB94" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="CB94" s="1"/>
       <c r="CC94" s="1"/>
       <c r="CD94" s="1"/>
       <c r="CE94" s="1"/>
@@ -11440,9 +11421,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="95" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>367</v>
@@ -11504,11 +11485,15 @@
       <c r="AK95" s="1"/>
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
-      <c r="AN95" s="1"/>
+      <c r="AN95" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
       <c r="AQ95" s="1"/>
-      <c r="AR95" s="1"/>
+      <c r="AR95" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="AS95" s="1"/>
       <c r="AT95" s="1"/>
       <c r="AU95" s="1"/>
@@ -11544,9 +11529,7 @@
       <c r="BY95" s="1"/>
       <c r="BZ95" s="1"/>
       <c r="CA95" s="1"/>
-      <c r="CB95" s="1" t="s">
-        <v>311</v>
-      </c>
+      <c r="CB95" s="1"/>
       <c r="CC95" s="1"/>
       <c r="CD95" s="1"/>
       <c r="CE95" s="1"/>
@@ -11555,9 +11538,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>367</v>
@@ -11613,13 +11596,13 @@
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="1" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="AH96" s="1" t="s">
         <v>312</v>
       </c>
       <c r="AI96" s="1" t="s">
-        <v>1</v>
+        <v>380</v>
       </c>
       <c r="AJ96" s="1" t="s">
         <v>29</v>
@@ -11673,7 +11656,9 @@
       <c r="BY96" s="1"/>
       <c r="BZ96" s="1"/>
       <c r="CA96" s="1"/>
-      <c r="CB96" s="1"/>
+      <c r="CB96" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="CC96" s="1"/>
       <c r="CD96" s="1"/>
       <c r="CE96" s="1"/>
@@ -11682,9 +11667,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>367</v>
@@ -11739,27 +11724,13 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
-      <c r="AG97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH97" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI97" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AL97" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AM97" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AJ97" s="1"/>
+      <c r="AK97" s="1"/>
+      <c r="AL97" s="1"/>
+      <c r="AM97" s="1"/>
       <c r="AN97" s="1"/>
       <c r="AO97" s="1"/>
       <c r="AP97" s="1"/>
@@ -11800,7 +11771,9 @@
       <c r="BY97" s="1"/>
       <c r="BZ97" s="1"/>
       <c r="CA97" s="1"/>
-      <c r="CB97" s="1"/>
+      <c r="CB97" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="CC97" s="1"/>
       <c r="CD97" s="1"/>
       <c r="CE97" s="1"/>
@@ -11809,27 +11782,47 @@
         <v>368</v>
       </c>
     </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>239</v>
+    <row r="98" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="C98" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="J98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" t="s">
+        <v>381</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -11846,13 +11839,27 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
-      <c r="AG98" s="1"/>
-      <c r="AH98" s="1"/>
-      <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
-      <c r="AK98" s="1"/>
-      <c r="AL98" s="1"/>
-      <c r="AM98" s="1"/>
+      <c r="AG98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL98" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM98" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN98" s="1"/>
       <c r="AO98" s="1"/>
       <c r="AP98" s="1"/>
@@ -11898,35 +11905,51 @@
       <c r="CD98" s="1"/>
       <c r="CE98" s="1"/>
       <c r="CF98" s="1"/>
-      <c r="CG98" s="1"/>
-    </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG98" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="C99" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F99" s="1"/>
-      <c r="G99" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>327</v>
-      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="J99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K99" t="s">
+        <v>381</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
@@ -11943,13 +11966,27 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
-      <c r="AG99" s="1"/>
-      <c r="AH99" s="1"/>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-      <c r="AK99" s="1"/>
-      <c r="AL99" s="1"/>
-      <c r="AM99" s="1"/>
+      <c r="AG99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL99" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM99" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN99" s="1"/>
       <c r="AO99" s="1"/>
       <c r="AP99" s="1"/>
@@ -11999,9 +12036,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>107</v>
+    <row r="100" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>367</v>
@@ -12010,12 +12047,8 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>327</v>
-      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -12092,18 +12125,18 @@
       <c r="CD100" s="1"/>
       <c r="CE100" s="1"/>
       <c r="CF100" s="1"/>
-      <c r="CG100" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG100" s="1"/>
+    </row>
+    <row r="101" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -12193,9 +12226,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>367</v>
@@ -12290,9 +12323,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>367</v>
@@ -12314,9 +12347,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -12386,12 +12417,12 @@
       <c r="CE103" s="1"/>
       <c r="CF103" s="1"/>
       <c r="CG103" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="104" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>367</v>
@@ -12401,10 +12432,10 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2" t="s">
-        <v>359</v>
+        <v>53</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -12486,9 +12517,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>367</v>
@@ -12530,9 +12561,7 @@
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
       <c r="AG105" s="1"/>
-      <c r="AH105" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
       <c r="AK105" s="1"/>
@@ -12584,29 +12613,25 @@
       <c r="CE105" s="1"/>
       <c r="CF105" s="1"/>
       <c r="CG105" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="2" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -12688,9 +12713,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>367</v>
@@ -12700,10 +12725,10 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2" t="s">
-        <v>359</v>
+        <v>53</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -12712,7 +12737,9 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="P107" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -12730,7 +12757,9 @@
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
       <c r="AG107" s="1"/>
-      <c r="AH107" s="1"/>
+      <c r="AH107" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
       <c r="AK107" s="1"/>
@@ -12785,15 +12814,19 @@
         <v>368</v>
       </c>
     </row>
-    <row r="108" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2" t="s">
@@ -12882,9 +12915,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>367</v>
@@ -12894,10 +12927,10 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2" t="s">
-        <v>53</v>
+        <v>359</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -12979,19 +13012,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2" t="s">
@@ -13080,19 +13109,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2" t="s">
@@ -13181,9 +13206,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>367</v>
@@ -13263,23 +13288,17 @@
       <c r="BO112" s="1"/>
       <c r="BP112" s="1"/>
       <c r="BQ112" s="1"/>
-      <c r="BR112" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="BS112" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="BR112" s="1"/>
+      <c r="BS112" s="1"/>
       <c r="BT112" s="1"/>
       <c r="BU112" s="1"/>
       <c r="BV112" s="1"/>
-      <c r="BW112" s="12"/>
-      <c r="BX112" s="12"/>
-      <c r="BY112" s="12"/>
-      <c r="BZ112" s="12"/>
-      <c r="CA112" s="12"/>
-      <c r="CB112" t="s">
-        <v>313</v>
-      </c>
+      <c r="BW112" s="1"/>
+      <c r="BX112" s="1"/>
+      <c r="BY112" s="1"/>
+      <c r="BZ112" s="1"/>
+      <c r="CA112" s="1"/>
+      <c r="CB112" s="1"/>
       <c r="CC112" s="1"/>
       <c r="CD112" s="1"/>
       <c r="CE112" s="1"/>
@@ -13288,19 +13307,27 @@
         <v>368</v>
       </c>
     </row>
-    <row r="113" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>240</v>
+    <row r="113" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="G113" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
@@ -13377,11 +13404,13 @@
       <c r="CD113" s="1"/>
       <c r="CE113" s="1"/>
       <c r="CF113" s="1"/>
-      <c r="CG113" s="1"/>
-    </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG113" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="114" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>367</v>
@@ -13461,66 +13490,52 @@
       <c r="BO114" s="1"/>
       <c r="BP114" s="1"/>
       <c r="BQ114" s="1"/>
-      <c r="BR114" s="1"/>
-      <c r="BS114" s="1"/>
+      <c r="BR114" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BS114" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="BT114" s="1"/>
       <c r="BU114" s="1"/>
       <c r="BV114" s="1"/>
-      <c r="BW114" s="1"/>
-      <c r="BX114" s="1"/>
-      <c r="BY114" s="1"/>
-      <c r="BZ114" s="1"/>
-      <c r="CA114" s="1"/>
-      <c r="CB114" s="1"/>
+      <c r="BW114" s="12"/>
+      <c r="BX114" s="12"/>
+      <c r="BY114" s="12"/>
+      <c r="BZ114" s="12"/>
+      <c r="CA114" s="12"/>
+      <c r="CB114" t="s">
+        <v>313</v>
+      </c>
       <c r="CC114" s="1"/>
       <c r="CD114" s="1"/>
       <c r="CE114" s="1"/>
       <c r="CF114" s="1"/>
       <c r="CG114" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>327</v>
-      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
-        <v>1</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
       <c r="O115" s="1"/>
-      <c r="P115" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -13589,13 +13604,11 @@
       <c r="CD115" s="1"/>
       <c r="CE115" s="1"/>
       <c r="CF115" s="1"/>
-      <c r="CG115" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="116" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG115" s="1"/>
+    </row>
+    <row r="116" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>446</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>367</v>
@@ -13609,31 +13622,19 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2" t="s">
-        <v>447</v>
+        <v>53</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>6</v>
+        <v>327</v>
       </c>
       <c r="I116" s="1"/>
-      <c r="J116" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>1</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
       <c r="O116" s="1"/>
-      <c r="P116" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -13703,12 +13704,12 @@
       <c r="CE116" s="1"/>
       <c r="CF116" s="1"/>
       <c r="CG116" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>367</v>
@@ -13783,21 +13784,12 @@
       <c r="AX117" s="1"/>
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
-      <c r="BA117" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB117" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD117" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE117" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF117" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA117" s="1"/>
+      <c r="BB117" s="1"/>
+      <c r="BC117" s="1"/>
+      <c r="BD117" s="1"/>
+      <c r="BE117" s="1"/>
+      <c r="BF117" s="1"/>
       <c r="BG117" s="1"/>
       <c r="BH117" s="1"/>
       <c r="BI117" s="1"/>
@@ -13828,9 +13820,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>446</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>367</v>
@@ -13844,10 +13836,10 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="2" t="s">
-        <v>53</v>
+        <v>447</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>327</v>
+        <v>6</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="2" t="s">
@@ -13905,19 +13897,13 @@
       <c r="AX118" s="1"/>
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
-      <c r="BA118" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="BA118" s="1"/>
       <c r="BB118" s="1"/>
       <c r="BC118" s="1"/>
       <c r="BD118" s="1"/>
       <c r="BE118" s="1"/>
-      <c r="BF118" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG118" s="4" t="s">
-        <v>133</v>
-      </c>
+      <c r="BF118" s="1"/>
+      <c r="BG118" s="1"/>
       <c r="BH118" s="1"/>
       <c r="BI118" s="1"/>
       <c r="BJ118" s="1"/>
@@ -13944,12 +13930,12 @@
       <c r="CE118" s="1"/>
       <c r="CF118" s="1"/>
       <c r="CG118" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>396</v>
+        <v>125</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>367</v>
@@ -14025,18 +14011,21 @@
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
       <c r="BA119" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB119" s="1"/>
-      <c r="BC119" s="1"/>
-      <c r="BD119" s="1"/>
-      <c r="BE119" s="1"/>
-      <c r="BF119" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG119" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BB119" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG119" s="1"/>
       <c r="BH119" s="1"/>
       <c r="BI119" s="1"/>
       <c r="BJ119" s="1"/>
@@ -14063,12 +14052,12 @@
       <c r="CE119" s="1"/>
       <c r="CF119" s="1"/>
       <c r="CG119" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>397</v>
+        <v>131</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>367</v>
@@ -14130,12 +14119,8 @@
       <c r="AK120" s="1"/>
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
-      <c r="AN120" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AO120" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
       <c r="AP120" s="1"/>
       <c r="AQ120" s="1"/>
       <c r="AR120" s="1"/>
@@ -14164,14 +14149,10 @@
       <c r="BI120" s="1"/>
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
-      <c r="BL120" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="BL120" s="1"/>
       <c r="BM120" s="1"/>
       <c r="BN120" s="1"/>
-      <c r="BO120" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="BO120" s="1"/>
       <c r="BP120" s="1"/>
       <c r="BQ120" s="1"/>
       <c r="BR120" s="1"/>
@@ -14190,12 +14171,12 @@
       <c r="CE120" s="1"/>
       <c r="CF120" s="1"/>
       <c r="CG120" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>367</v>
@@ -14257,12 +14238,8 @@
       <c r="AK121" s="1"/>
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
-      <c r="AN121" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="AO121" s="1" t="s">
-        <v>399</v>
-      </c>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
       <c r="AP121" s="1"/>
       <c r="AQ121" s="1"/>
       <c r="AR121" s="1"/>
@@ -14291,14 +14268,10 @@
       <c r="BI121" s="1"/>
       <c r="BJ121" s="1"/>
       <c r="BK121" s="1"/>
-      <c r="BL121" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="BL121" s="1"/>
       <c r="BM121" s="1"/>
       <c r="BN121" s="1"/>
-      <c r="BO121" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="BO121" s="1"/>
       <c r="BP121" s="1"/>
       <c r="BQ121" s="1"/>
       <c r="BR121" s="1"/>
@@ -14320,18 +14293,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -14447,18 +14420,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -14466,7 +14439,7 @@
         <v>53</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="2" t="s">
@@ -14571,12 +14544,12 @@
       <c r="CE123" s="1"/>
       <c r="CF123" s="1"/>
       <c r="CG123" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>367</v>
@@ -14701,9 +14674,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>367</v>
@@ -14720,7 +14693,7 @@
         <v>53</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="2" t="s">
@@ -14825,12 +14798,12 @@
       <c r="CE125" s="1"/>
       <c r="CF125" s="1"/>
       <c r="CG125" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>367</v>
@@ -14955,18 +14928,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -15082,18 +15055,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -15209,9 +15182,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>367</v>
@@ -15266,10 +15239,9 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="1">
-        <v>324353454</v>
-      </c>
+      <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
       <c r="AK129" s="1"/>
       <c r="AL129" s="1"/>
@@ -15337,9 +15309,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>367</v>
@@ -15396,9 +15368,7 @@
       <c r="AF130" s="1"/>
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
-      <c r="AI130" s="1" t="s">
-        <v>429</v>
-      </c>
+      <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
@@ -15463,12 +15433,12 @@
       <c r="CE130" s="1"/>
       <c r="CF130" s="1"/>
       <c r="CG130" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>367</v>
@@ -15523,15 +15493,14 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
-      <c r="AG131" s="1"/>
+      <c r="AG131" s="1">
+        <v>324353454</v>
+      </c>
       <c r="AH131" s="1"/>
-      <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
-      <c r="AM131" s="26" t="s">
-        <v>428</v>
-      </c>
+      <c r="AM131" s="1"/>
       <c r="AN131" s="1" t="s">
         <v>398</v>
       </c>
@@ -15595,9 +15564,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>367</v>
@@ -15654,11 +15623,11 @@
       <c r="AF132" s="1"/>
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
+      <c r="AI132" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="AJ132" s="1"/>
-      <c r="AK132" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
       <c r="AN132" s="1" t="s">
@@ -15721,12 +15690,12 @@
       <c r="CE132" s="1"/>
       <c r="CF132" s="1"/>
       <c r="CG132" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>367</v>
@@ -15787,7 +15756,9 @@
       <c r="AJ133" s="1"/>
       <c r="AK133" s="1"/>
       <c r="AL133" s="1"/>
-      <c r="AM133" s="1"/>
+      <c r="AM133" s="26" t="s">
+        <v>428</v>
+      </c>
       <c r="AN133" s="1" t="s">
         <v>398</v>
       </c>
@@ -15851,9 +15822,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>367</v>
@@ -15912,7 +15883,9 @@
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
-      <c r="AK134" s="1"/>
+      <c r="AK134" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="AL134" s="1"/>
       <c r="AM134" s="1"/>
       <c r="AN134" s="1" t="s">
@@ -15978,9 +15951,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>367</v>
@@ -16105,18 +16078,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -16232,18 +16205,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>364</v>
+        <v>3</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -16359,9 +16332,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>367</v>
@@ -16486,9 +16459,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>367</v>
@@ -16613,18 +16586,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -16740,18 +16713,18 @@
         <v>368</v>
       </c>
     </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C141" s="26" t="s">
-        <v>411</v>
+      <c r="C141" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -16867,15 +16840,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="142" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C142" s="26" t="s">
-        <v>411</v>
+      <c r="C142" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
@@ -16886,7 +16859,7 @@
         <v>53</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>418</v>
+        <v>327</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="2" t="s">
@@ -16991,18 +16964,18 @@
       <c r="CE142" s="1"/>
       <c r="CF142" s="1"/>
       <c r="CG142" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>2</v>
+      <c r="C143" s="26" t="s">
+        <v>411</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>3</v>
@@ -17121,15 +17094,15 @@
         <v>368</v>
       </c>
     </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>2</v>
+      <c r="C144" s="26" t="s">
+        <v>411</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>3</v>
@@ -17140,7 +17113,7 @@
         <v>53</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>327</v>
+        <v>418</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="2" t="s">
@@ -17245,12 +17218,12 @@
       <c r="CE144" s="1"/>
       <c r="CF144" s="1"/>
       <c r="CG144" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>405</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>367</v>
@@ -17312,8 +17285,12 @@
       <c r="AK145" s="1"/>
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
-      <c r="AN145" s="1"/>
-      <c r="AO145" s="1"/>
+      <c r="AN145" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO145" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="AP145" s="1"/>
       <c r="AQ145" s="1"/>
       <c r="AR145" s="1"/>
@@ -17326,30 +17303,30 @@
       <c r="AY145" s="1"/>
       <c r="AZ145" s="1"/>
       <c r="BA145" s="1" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="BB145" s="1"/>
       <c r="BC145" s="1"/>
       <c r="BD145" s="1"/>
       <c r="BE145" s="1"/>
-      <c r="BF145" s="1"/>
-      <c r="BG145" s="1"/>
-      <c r="BH145" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI145" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ145" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK145" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BL145" s="1"/>
+      <c r="BF145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG145" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH145" s="1"/>
+      <c r="BI145" s="1"/>
+      <c r="BJ145" s="1"/>
+      <c r="BK145" s="1"/>
+      <c r="BL145" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="BM145" s="1"/>
       <c r="BN145" s="1"/>
-      <c r="BO145" s="1"/>
+      <c r="BO145" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="BP145" s="1"/>
       <c r="BQ145" s="1"/>
       <c r="BR145" s="1"/>
@@ -17368,21 +17345,21 @@
       <c r="CE145" s="1"/>
       <c r="CF145" s="1"/>
       <c r="CG145" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="146" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C146" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D146" s="26" t="s">
-        <v>364</v>
+      <c r="C146" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -17435,8 +17412,12 @@
       <c r="AK146" s="1"/>
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
-      <c r="AN146" s="1"/>
-      <c r="AO146" s="1"/>
+      <c r="AN146" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO146" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="AP146" s="1"/>
       <c r="AQ146" s="1"/>
       <c r="AR146" s="1"/>
@@ -17449,30 +17430,30 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="BB146" s="1"/>
       <c r="BC146" s="1"/>
       <c r="BD146" s="1"/>
       <c r="BE146" s="1"/>
-      <c r="BF146" s="1"/>
-      <c r="BG146" s="1"/>
-      <c r="BH146" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI146" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ146" t="s">
-        <v>343</v>
-      </c>
-      <c r="BK146" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="BL146" s="1"/>
+      <c r="BF146" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG146" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH146" s="1"/>
+      <c r="BI146" s="1"/>
+      <c r="BJ146" s="1"/>
+      <c r="BK146" s="1"/>
+      <c r="BL146" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="BM146" s="1"/>
       <c r="BN146" s="1"/>
-      <c r="BO146" s="1"/>
+      <c r="BO146" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="BP146" s="1"/>
       <c r="BQ146" s="1"/>
       <c r="BR146" s="1"/>
@@ -17481,30 +17462,22 @@
       <c r="BU146" s="1"/>
       <c r="BV146" s="1"/>
       <c r="BW146" s="1"/>
-      <c r="BX146" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY146" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="BZ146" t="s">
-        <v>345</v>
-      </c>
-      <c r="CA146" s="1" t="s">
-        <v>346</v>
-      </c>
+      <c r="BX146" s="1"/>
+      <c r="BY146" s="1"/>
+      <c r="BZ146" s="1"/>
+      <c r="CA146" s="1"/>
       <c r="CB146" s="1"/>
       <c r="CC146" s="1"/>
       <c r="CD146" s="1"/>
       <c r="CE146" s="1"/>
       <c r="CF146" s="1"/>
       <c r="CG146" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="147" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>367</v>
@@ -17580,25 +17553,26 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB147" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB147" s="1"/>
+      <c r="BC147" s="1"/>
+      <c r="BD147" s="1"/>
+      <c r="BE147" s="1"/>
+      <c r="BF147" s="1"/>
+      <c r="BG147" s="1"/>
+      <c r="BH147" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI147" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BD147" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE147" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF147" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG147" s="1"/>
-      <c r="BH147" s="1"/>
-      <c r="BI147" s="1"/>
-      <c r="BJ147" s="1"/>
-      <c r="BK147" s="1"/>
+      <c r="BJ147" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK147" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="BL147" s="1"/>
       <c r="BM147" s="1"/>
       <c r="BN147" s="1"/>
@@ -17624,18 +17598,18 @@
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>339</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>3</v>
+      <c r="C148" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>364</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -17702,22 +17676,26 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
       <c r="BA148" s="1" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="BB148" s="1"/>
       <c r="BC148" s="1"/>
       <c r="BD148" s="1"/>
       <c r="BE148" s="1"/>
-      <c r="BF148" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG148" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH148" s="1"/>
-      <c r="BI148" s="1"/>
-      <c r="BJ148" s="1"/>
-      <c r="BK148" s="1"/>
+      <c r="BF148" s="1"/>
+      <c r="BG148" s="1"/>
+      <c r="BH148" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI148" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ148" t="s">
+        <v>343</v>
+      </c>
+      <c r="BK148" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="BL148" s="1"/>
       <c r="BM148" s="1"/>
       <c r="BN148" s="1"/>
@@ -17730,10 +17708,18 @@
       <c r="BU148" s="1"/>
       <c r="BV148" s="1"/>
       <c r="BW148" s="1"/>
-      <c r="BX148" s="1"/>
-      <c r="BY148" s="1"/>
-      <c r="BZ148" s="1"/>
-      <c r="CA148" s="1"/>
+      <c r="BX148" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BY148" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="BZ148" t="s">
+        <v>345</v>
+      </c>
+      <c r="CA148" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="CB148" s="1"/>
       <c r="CC148" s="1"/>
       <c r="CD148" s="1"/>
@@ -17743,9 +17729,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>367</v>
@@ -17820,25 +17806,26 @@
       <c r="AX149" s="1"/>
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
-      <c r="BA149" s="1"/>
-      <c r="BB149" s="1"/>
-      <c r="BC149" s="1"/>
-      <c r="BD149" s="1"/>
-      <c r="BE149" s="1"/>
-      <c r="BF149" s="1"/>
+      <c r="BA149" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB149" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD149" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF149" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="BG149" s="1"/>
-      <c r="BH149" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI149" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ149" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK149" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="BH149" s="1"/>
+      <c r="BI149" s="1"/>
+      <c r="BJ149" s="1"/>
+      <c r="BK149" s="1"/>
       <c r="BL149" s="1"/>
       <c r="BM149" s="1"/>
       <c r="BN149" s="1"/>
@@ -17864,17 +17851,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D150" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="2" t="s">
@@ -17940,21 +17929,18 @@
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
       <c r="BA150" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB150" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD150" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE150" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF150" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG150" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="BB150" s="1"/>
+      <c r="BC150" s="1"/>
+      <c r="BD150" s="1"/>
+      <c r="BE150" s="1"/>
+      <c r="BF150" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG150" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="BH150" s="1"/>
       <c r="BI150" s="1"/>
       <c r="BJ150" s="1"/>
@@ -17984,17 +17970,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D151" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="2" t="s">
@@ -18059,23 +18047,25 @@
       <c r="AX151" s="1"/>
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
-      <c r="BA151" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="BA151" s="1"/>
       <c r="BB151" s="1"/>
       <c r="BC151" s="1"/>
       <c r="BD151" s="1"/>
       <c r="BE151" s="1"/>
-      <c r="BF151" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG151" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH151" s="1"/>
-      <c r="BI151" s="1"/>
-      <c r="BJ151" s="1"/>
-      <c r="BK151" s="1"/>
+      <c r="BF151" s="1"/>
+      <c r="BG151" s="1"/>
+      <c r="BH151" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI151" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ151" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK151" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="BL151" s="1"/>
       <c r="BM151" s="1"/>
       <c r="BN151" s="1"/>
@@ -18101,19 +18091,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>394</v>
+        <v>143</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C152" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C152" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="2" t="s">
@@ -18179,18 +18167,21 @@
       <c r="AY152" s="1"/>
       <c r="AZ152" s="1"/>
       <c r="BA152" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB152" s="1"/>
-      <c r="BC152" s="1"/>
-      <c r="BD152" s="1"/>
-      <c r="BE152" s="1"/>
-      <c r="BF152" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG152" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="BB152" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE152" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG152" s="1"/>
       <c r="BH152" s="1"/>
       <c r="BI152" s="1"/>
       <c r="BJ152" s="1"/>
@@ -18198,9 +18189,7 @@
       <c r="BL152" s="1"/>
       <c r="BM152" s="1"/>
       <c r="BN152" s="1"/>
-      <c r="BO152" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="BO152" s="1"/>
       <c r="BP152" s="1"/>
       <c r="BQ152" s="1"/>
       <c r="BR152" s="1"/>
@@ -18222,19 +18211,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C153" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="2" t="s">
@@ -18316,14 +18303,10 @@
       <c r="BI153" s="1"/>
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
-      <c r="BL153" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="BL153" s="1"/>
       <c r="BM153" s="1"/>
       <c r="BN153" s="1"/>
-      <c r="BO153" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="BO153" s="1"/>
       <c r="BP153" s="1"/>
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
@@ -18342,12 +18325,12 @@
       <c r="CE153" s="1"/>
       <c r="CF153" s="1"/>
       <c r="CG153" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="154" spans="1:85" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>367</v>
@@ -18439,12 +18422,12 @@
       <c r="BI154" s="1"/>
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
-      <c r="BL154" s="1" t="s">
-        <v>441</v>
-      </c>
+      <c r="BL154" s="1"/>
       <c r="BM154" s="1"/>
       <c r="BN154" s="1"/>
-      <c r="BO154" s="1"/>
+      <c r="BO154" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="BP154" s="1"/>
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
@@ -18466,17 +18449,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>404</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D155" s="1"/>
+      <c r="C155" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="2" t="s">
@@ -18541,29 +18526,31 @@
       <c r="AX155" s="1"/>
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
-      <c r="BA155" s="1"/>
+      <c r="BA155" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB155" s="1"/>
       <c r="BC155" s="1"/>
       <c r="BD155" s="1"/>
       <c r="BE155" s="1"/>
-      <c r="BF155" s="1"/>
-      <c r="BG155" s="1"/>
-      <c r="BH155" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI155" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ155" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK155" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="BL155" s="1"/>
+      <c r="BF155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG155" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH155" s="1"/>
+      <c r="BI155" s="1"/>
+      <c r="BJ155" s="1"/>
+      <c r="BK155" s="1"/>
+      <c r="BL155" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="BM155" s="1"/>
       <c r="BN155" s="1"/>
-      <c r="BO155" s="1"/>
+      <c r="BO155" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="BP155" s="1"/>
       <c r="BQ155" s="1"/>
       <c r="BR155" s="1"/>
@@ -18582,26 +18569,24 @@
       <c r="CE155" s="1"/>
       <c r="CF155" s="1"/>
       <c r="CG155" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="156" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>405</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E156" s="1"/>
-      <c r="F156" t="s">
-        <v>3</v>
-      </c>
+      <c r="F156" s="1"/>
       <c r="G156" s="2" t="s">
         <v>53</v>
       </c>
@@ -18615,8 +18600,8 @@
       <c r="K156" t="s">
         <v>1</v>
       </c>
-      <c r="L156" s="1">
-        <v>1234567890</v>
+      <c r="L156" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="M156" s="2" t="s">
         <v>28</v>
@@ -18625,17 +18610,15 @@
         <v>236</v>
       </c>
       <c r="O156" s="1"/>
-      <c r="P156" s="1">
-        <v>122001</v>
+      <c r="P156" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
       <c r="U156" s="1"/>
-      <c r="V156" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V156" s="1"/>
       <c r="W156" s="1"/>
       <c r="X156" s="1"/>
       <c r="Y156" s="1"/>
@@ -18646,19 +18629,13 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
-      <c r="AG156" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
-      <c r="AI156" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
       <c r="AK156" s="1"/>
       <c r="AL156" s="1"/>
-      <c r="AM156" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM156" s="1"/>
       <c r="AN156" s="1"/>
       <c r="AO156" s="1"/>
       <c r="AP156" s="1"/>
@@ -18673,26 +18650,25 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
       <c r="BA156" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB156" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD156" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE156" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF156" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BG156" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="BB156" s="1"/>
+      <c r="BC156" s="1"/>
+      <c r="BD156" s="1"/>
+      <c r="BE156" s="1"/>
+      <c r="BF156" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG156" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="BH156" s="1"/>
       <c r="BI156" s="1"/>
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
-      <c r="BL156" s="1"/>
+      <c r="BL156" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="BM156" s="1"/>
       <c r="BN156" s="1"/>
       <c r="BO156" s="1"/>
@@ -18717,23 +18693,19 @@
         <v>366</v>
       </c>
     </row>
-    <row r="157" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C157" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C157" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" t="s">
-        <v>3</v>
-      </c>
+      <c r="F157" s="1"/>
       <c r="G157" s="2" t="s">
         <v>53</v>
       </c>
@@ -18765,9 +18737,7 @@
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
       <c r="U157" s="1"/>
-      <c r="V157" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="V157" s="1"/>
       <c r="W157" s="1"/>
       <c r="X157" s="1"/>
       <c r="Y157" s="1"/>
@@ -18778,19 +18748,13 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
-      <c r="AG157" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
-      <c r="AI157" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
       <c r="AK157" s="1"/>
       <c r="AL157" s="1"/>
-      <c r="AM157" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AM157" s="1"/>
       <c r="AN157" s="1"/>
       <c r="AO157" s="1"/>
       <c r="AP157" s="1"/>
@@ -18804,23 +18768,25 @@
       <c r="AX157" s="1"/>
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
-      <c r="BA157" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="BA157" s="1"/>
       <c r="BB157" s="1"/>
       <c r="BC157" s="1"/>
       <c r="BD157" s="1"/>
       <c r="BE157" s="1"/>
-      <c r="BF157" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG157" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH157" s="1"/>
-      <c r="BI157" s="1"/>
-      <c r="BJ157" s="1"/>
-      <c r="BK157" s="1"/>
+      <c r="BF157" s="1"/>
+      <c r="BG157" s="1"/>
+      <c r="BH157" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI157" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ157" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK157" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="BL157" s="1"/>
       <c r="BM157" s="1"/>
       <c r="BN157" s="1"/>
@@ -18846,15 +18812,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="158" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>3</v>
@@ -18876,8 +18842,8 @@
       <c r="K158" t="s">
         <v>1</v>
       </c>
-      <c r="L158" s="1" t="s">
-        <v>5</v>
+      <c r="L158" s="1">
+        <v>1234567890</v>
       </c>
       <c r="M158" s="2" t="s">
         <v>28</v>
@@ -18886,8 +18852,8 @@
         <v>236</v>
       </c>
       <c r="O158" s="1"/>
-      <c r="P158" s="1" t="s">
-        <v>124</v>
+      <c r="P158" s="1">
+        <v>122001</v>
       </c>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
@@ -18933,25 +18899,26 @@
       <c r="AX158" s="1"/>
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
-      <c r="BA158" s="1"/>
-      <c r="BB158" s="1"/>
-      <c r="BC158" s="1"/>
-      <c r="BD158" s="1"/>
-      <c r="BE158" s="1"/>
-      <c r="BF158" s="1"/>
+      <c r="BA158" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB158" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD158" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE158" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF158" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG158" s="1"/>
-      <c r="BH158" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI158" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ158" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="BK158" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="BH158" s="1"/>
+      <c r="BI158" s="1"/>
+      <c r="BJ158" s="1"/>
+      <c r="BK158" s="1"/>
       <c r="BL158" s="1"/>
       <c r="BM158" s="1"/>
       <c r="BN158" s="1"/>
@@ -18977,15 +18944,15 @@
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>314</v>
+        <v>147</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>3</v>
@@ -19064,12 +19031,19 @@
       <c r="AX159" s="1"/>
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
-      <c r="BA159" s="1"/>
-      <c r="BB159" s="4"/>
-      <c r="BD159" s="2"/>
-      <c r="BE159" s="3"/>
-      <c r="BF159" s="2"/>
-      <c r="BG159" s="1"/>
+      <c r="BA159" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB159" s="1"/>
+      <c r="BC159" s="1"/>
+      <c r="BD159" s="1"/>
+      <c r="BE159" s="1"/>
+      <c r="BF159" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG159" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="BH159" s="1"/>
       <c r="BI159" s="1"/>
       <c r="BJ159" s="1"/>
@@ -19099,33 +19073,57 @@
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
-        <v>242</v>
+    <row r="160" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="C160" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="F160" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
+      <c r="J160" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="P160" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="1"/>
+      <c r="V160" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W160" s="1"/>
       <c r="X160" s="1"/>
       <c r="Y160" s="1"/>
@@ -19136,13 +19134,19 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="1"/>
+      <c r="AG160" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="AH160" s="1"/>
-      <c r="AI160" s="1"/>
+      <c r="AI160" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ160" s="1"/>
       <c r="AK160" s="1"/>
       <c r="AL160" s="1"/>
-      <c r="AM160" s="1"/>
+      <c r="AM160" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN160" s="1"/>
       <c r="AO160" s="1"/>
       <c r="AP160" s="1"/>
@@ -19163,10 +19167,18 @@
       <c r="BE160" s="1"/>
       <c r="BF160" s="1"/>
       <c r="BG160" s="1"/>
-      <c r="BH160" s="1"/>
-      <c r="BI160" s="11"/>
-      <c r="BJ160" s="1"/>
-      <c r="BK160" s="1"/>
+      <c r="BH160" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI160" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ160" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BK160" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="BL160" s="1"/>
       <c r="BM160" s="1"/>
       <c r="BN160" s="1"/>
@@ -19188,40 +19200,42 @@
       <c r="CD160" s="1"/>
       <c r="CE160" s="1"/>
       <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-    </row>
-    <row r="161" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C161" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K161" s="2" t="s">
-        <v>351</v>
+      <c r="C161" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>1</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="M161" s="2" t="s">
         <v>28</v>
@@ -19233,22 +19247,14 @@
       <c r="P161" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q161" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="R161" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="S161" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="U161" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="V161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="W161" s="1"/>
       <c r="X161" s="1"/>
       <c r="Y161" s="1"/>
@@ -19260,14 +19266,18 @@
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
       <c r="AG161" s="1" t="s">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="AH161" s="1"/>
-      <c r="AI161" s="1"/>
+      <c r="AI161" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ161" s="1"/>
       <c r="AK161" s="1"/>
       <c r="AL161" s="1"/>
-      <c r="AM161" s="1"/>
+      <c r="AM161" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="AN161" s="1"/>
       <c r="AO161" s="1"/>
       <c r="AP161" s="1"/>
@@ -19281,24 +19291,14 @@
       <c r="AX161" s="1"/>
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
-      <c r="BA161" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB161" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD161" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE161" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF161" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA161" s="1"/>
+      <c r="BB161" s="4"/>
+      <c r="BD161" s="2"/>
+      <c r="BE161" s="3"/>
+      <c r="BF161" s="2"/>
       <c r="BG161" s="1"/>
       <c r="BH161" s="1"/>
-      <c r="BI161" s="11"/>
+      <c r="BI161" s="1"/>
       <c r="BJ161" s="1"/>
       <c r="BK161" s="1"/>
       <c r="BL161" s="1"/>
@@ -19321,69 +19321,37 @@
       <c r="CC161" s="1"/>
       <c r="CD161" s="1"/>
       <c r="CE161" s="1"/>
-      <c r="CF161" s="18"/>
+      <c r="CF161" s="1"/>
       <c r="CG161" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="162" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>251</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="162" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C162" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N162" s="1" t="s">
-        <v>236</v>
-      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
       <c r="O162" s="1"/>
-      <c r="P162" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q162" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="R162" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="S162" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T162" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>248</v>
-      </c>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
       <c r="V162" s="1"/>
       <c r="W162" s="1"/>
       <c r="X162" s="1"/>
@@ -19395,9 +19363,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
-      <c r="AG162" s="1" t="s">
-        <v>386</v>
-      </c>
+      <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
@@ -19417,21 +19383,12 @@
       <c r="AX162" s="1"/>
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
-      <c r="BA162" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB162" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD162" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE162" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF162" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA162" s="1"/>
+      <c r="BB162" s="1"/>
+      <c r="BC162" s="1"/>
+      <c r="BD162" s="1"/>
+      <c r="BE162" s="1"/>
+      <c r="BF162" s="1"/>
       <c r="BG162" s="1"/>
       <c r="BH162" s="1"/>
       <c r="BI162" s="11"/>
@@ -19457,14 +19414,12 @@
       <c r="CC162" s="1"/>
       <c r="CD162" s="1"/>
       <c r="CE162" s="1"/>
-      <c r="CF162" s="18"/>
-      <c r="CG162" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="163" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CF162" s="1"/>
+      <c r="CG162" s="1"/>
+    </row>
+    <row r="163" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>367</v>
@@ -19477,8 +19432,12 @@
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="1"/>
+      <c r="G163" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>436</v>
       </c>
@@ -19489,7 +19448,7 @@
         <v>351</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="M163" s="2" t="s">
         <v>28</v>
@@ -19549,12 +19508,21 @@
       <c r="AX163" s="1"/>
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
-      <c r="BA163" s="1"/>
-      <c r="BB163" s="1"/>
-      <c r="BC163" s="12"/>
-      <c r="BD163" s="1"/>
-      <c r="BE163" s="1"/>
-      <c r="BF163" s="1"/>
+      <c r="BA163" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB163" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD163" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE163" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF163" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG163" s="1"/>
       <c r="BH163" s="1"/>
       <c r="BI163" s="11"/>
@@ -19585,46 +19553,44 @@
         <v>368</v>
       </c>
     </row>
-    <row r="164" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="D164" s="11" t="s">
         <v>364</v>
       </c>
       <c r="E164" s="3"/>
-      <c r="F164" s="3" t="s">
-        <v>364</v>
-      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="3" t="s">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>244</v>
+        <v>6</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>372</v>
+        <v>28</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>373</v>
+        <v>236</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1" t="s">
@@ -19657,7 +19623,7 @@
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
       <c r="AG164" s="1" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
@@ -19678,12 +19644,21 @@
       <c r="AX164" s="1"/>
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
-      <c r="BA164" s="1"/>
-      <c r="BB164" s="1"/>
-      <c r="BC164" s="12"/>
-      <c r="BD164" s="1"/>
-      <c r="BE164" s="1"/>
-      <c r="BF164" s="1"/>
+      <c r="BA164" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB164" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD164" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE164" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF164" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG164" s="1"/>
       <c r="BH164" s="1"/>
       <c r="BI164" s="11"/>
@@ -19711,12 +19686,12 @@
       <c r="CE164" s="1"/>
       <c r="CF164" s="18"/>
       <c r="CG164" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="165" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>254</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>367</v>
@@ -19729,12 +19704,8 @@
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
-      <c r="G165" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="1"/>
       <c r="I165" s="1" t="s">
         <v>436</v>
       </c>
@@ -19805,21 +19776,12 @@
       <c r="AX165" s="1"/>
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
-      <c r="BA165" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB165" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD165" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE165" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF165" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA165" s="1"/>
+      <c r="BB165" s="1"/>
+      <c r="BC165" s="12"/>
+      <c r="BD165" s="1"/>
+      <c r="BE165" s="1"/>
+      <c r="BF165" s="1"/>
       <c r="BG165" s="1"/>
       <c r="BH165" s="1"/>
       <c r="BI165" s="11"/>
@@ -19850,40 +19812,46 @@
         <v>368</v>
       </c>
     </row>
-    <row r="166" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>255</v>
+    <row r="166" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="D166" s="11" t="s">
         <v>364</v>
       </c>
       <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="1"/>
+      <c r="F166" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="I166" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>28</v>
+        <v>372</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1" t="s">
@@ -19916,7 +19884,7 @@
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
       <c r="AG166" s="1" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
@@ -19937,21 +19905,12 @@
       <c r="AX166" s="1"/>
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
-      <c r="BA166" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BB166" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD166" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE166" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF166" s="2" t="s">
-        <v>130</v>
-      </c>
+      <c r="BA166" s="1"/>
+      <c r="BB166" s="1"/>
+      <c r="BC166" s="12"/>
+      <c r="BD166" s="1"/>
+      <c r="BE166" s="1"/>
+      <c r="BF166" s="1"/>
       <c r="BG166" s="1"/>
       <c r="BH166" s="1"/>
       <c r="BI166" s="11"/>
@@ -19982,9 +19941,9 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>367</v>
@@ -19997,8 +19956,12 @@
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="1"/>
+      <c r="G167" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="I167" s="1" t="s">
         <v>436</v>
       </c>
@@ -20114,40 +20077,34 @@
         <v>368</v>
       </c>
     </row>
-    <row r="168" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="D168" s="11" t="s">
         <v>364</v>
       </c>
       <c r="E168" s="3"/>
-      <c r="F168" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
         <v>436</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>388</v>
+        <v>317</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="M168" s="2" t="s">
         <v>28</v>
@@ -20186,7 +20143,7 @@
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
       <c r="AG168" s="1" t="s">
-        <v>390</v>
+        <v>353</v>
       </c>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
@@ -20238,56 +20195,74 @@
       <c r="BT168" s="1"/>
       <c r="BU168" s="1"/>
       <c r="BV168" s="1"/>
-      <c r="BW168" s="12"/>
-      <c r="BX168" s="12"/>
-      <c r="BY168" s="12"/>
-      <c r="BZ168" s="12"/>
-      <c r="CA168" s="12"/>
-      <c r="CB168" s="12"/>
-      <c r="CC168" s="12"/>
-      <c r="CD168" s="12"/>
+      <c r="BW168" s="1"/>
+      <c r="BX168" s="1"/>
+      <c r="BY168" s="1"/>
+      <c r="BZ168" s="1"/>
+      <c r="CA168" s="1"/>
+      <c r="CB168" s="1"/>
+      <c r="CC168" s="1"/>
+      <c r="CD168" s="1"/>
       <c r="CE168" s="1"/>
       <c r="CF168" s="18"/>
       <c r="CG168" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="169" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>2</v>
+      <c r="C169" s="28" t="s">
+        <v>387</v>
       </c>
       <c r="D169" s="11" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
-      <c r="G169" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J169" s="1"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="1"/>
+      <c r="J169" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K169" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="11"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="10"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
+      <c r="P169" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q169" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R169" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S169" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
@@ -20299,7 +20274,9 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
-      <c r="AG169" s="1"/>
+      <c r="AG169" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
@@ -20319,18 +20296,24 @@
       <c r="AX169" s="1"/>
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
-      <c r="BA169" s="1"/>
-      <c r="BB169" s="4"/>
-      <c r="BD169" s="2"/>
-      <c r="BE169" s="3"/>
-      <c r="BF169" s="2"/>
+      <c r="BA169" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB169" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD169" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE169" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF169" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG169" s="1"/>
-      <c r="BH169" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BI169" s="11" t="s">
-        <v>354</v>
-      </c>
+      <c r="BH169" s="1"/>
+      <c r="BI169" s="11"/>
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
       <c r="BL169" s="1"/>
@@ -20344,52 +20327,54 @@
       <c r="BT169" s="1"/>
       <c r="BU169" s="1"/>
       <c r="BV169" s="1"/>
-      <c r="BW169" s="12"/>
-      <c r="BX169" s="12"/>
-      <c r="BY169" s="12"/>
-      <c r="BZ169" s="12"/>
-      <c r="CA169" s="12"/>
-      <c r="CB169" s="12"/>
-      <c r="CC169" s="12"/>
-      <c r="CD169" s="12"/>
+      <c r="BW169" s="1"/>
+      <c r="BX169" s="1"/>
+      <c r="BY169" s="1"/>
+      <c r="BZ169" s="1"/>
+      <c r="CA169" s="1"/>
+      <c r="CB169" s="1"/>
+      <c r="CC169" s="1"/>
+      <c r="CD169" s="1"/>
       <c r="CE169" s="1"/>
       <c r="CF169" s="18"/>
       <c r="CG169" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="170" spans="1:85" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C170" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D170" s="28" t="s">
-        <v>391</v>
+        <v>438</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>364</v>
       </c>
       <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
+      <c r="F170" s="11" t="s">
+        <v>364</v>
+      </c>
       <c r="G170" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>59</v>
+        <v>243</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="I170" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>0</v>
+      <c r="J170" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>1</v>
+        <v>389</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="M170" s="2" t="s">
         <v>28</v>
@@ -20401,11 +20386,21 @@
       <c r="P170" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q170" s="11"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
+      <c r="Q170" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="R170" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="S170" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="V170" s="1"/>
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
@@ -20417,7 +20412,9 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
+      <c r="AG170" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
@@ -20438,25 +20435,25 @@
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
       <c r="BA170" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB170" s="4"/>
-      <c r="BD170" s="2"/>
-      <c r="BE170" s="3"/>
-      <c r="BF170" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="BB170" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD170" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE170" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF170" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="BG170" s="1"/>
-      <c r="BH170" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BI170" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="BJ170" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="BK170" s="1" t="s">
-        <v>355</v>
-      </c>
+      <c r="BH170" s="1"/>
+      <c r="BI170" s="11"/>
+      <c r="BJ170" s="1"/>
+      <c r="BK170" s="1"/>
       <c r="BL170" s="1"/>
       <c r="BM170" s="1"/>
       <c r="BN170" s="1"/>
@@ -20479,57 +20476,45 @@
       <c r="CE170" s="1"/>
       <c r="CF170" s="18"/>
       <c r="CG170" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="171" spans="1:85" ht="30" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C171" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="D171" s="28" t="s">
-        <v>391</v>
+      <c r="C171" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
+      <c r="G171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="I171" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="L171" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="J171" s="1"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="1"/>
       <c r="M171" s="2"/>
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-      <c r="Q171" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="R171" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="S171" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="T171" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="U171" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="Q171" s="11"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
@@ -20541,9 +20526,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -20569,14 +20552,16 @@
       <c r="BE171" s="3"/>
       <c r="BF171" s="2"/>
       <c r="BG171" s="1"/>
-      <c r="BH171" s="1"/>
-      <c r="BI171" s="11"/>
+      <c r="BH171" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BI171" s="11" t="s">
+        <v>354</v>
+      </c>
       <c r="BJ171" s="1"/>
       <c r="BK171" s="1"/>
       <c r="BL171" s="1"/>
-      <c r="BM171" s="1" t="s">
-        <v>296</v>
-      </c>
+      <c r="BM171" s="1"/>
       <c r="BN171" s="1"/>
       <c r="BO171" s="1"/>
       <c r="BP171" s="1"/>
@@ -20600,30 +20585,34 @@
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>442</v>
+    <row r="172" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="2" t="s">
+      <c r="C172" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D172" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="I172" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="J172" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K172" t="s">
+      <c r="K172" s="2" t="s">
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
@@ -20639,7 +20628,7 @@
       <c r="P172" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q172" s="1"/>
+      <c r="Q172" s="11"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
@@ -20676,22 +20665,25 @@
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
       <c r="BA172" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB172" s="1"/>
-      <c r="BC172" s="1"/>
-      <c r="BD172" s="1"/>
-      <c r="BE172" s="1"/>
-      <c r="BF172" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG172" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH172" s="1"/>
-      <c r="BI172" s="1"/>
-      <c r="BJ172" s="1"/>
-      <c r="BK172" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="BB172" s="4"/>
+      <c r="BD172" s="2"/>
+      <c r="BE172" s="3"/>
+      <c r="BF172" s="2"/>
+      <c r="BG172" s="1"/>
+      <c r="BH172" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="BI172" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="BJ172" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="BK172" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="BL172" s="1"/>
       <c r="BM172" s="1"/>
       <c r="BN172" s="1"/>
@@ -20703,50 +20695,68 @@
       <c r="BT172" s="1"/>
       <c r="BU172" s="1"/>
       <c r="BV172" s="1"/>
-      <c r="BW172" s="1"/>
-      <c r="BX172" s="1"/>
-      <c r="BY172" s="1"/>
-      <c r="BZ172" s="1"/>
-      <c r="CA172" s="1"/>
-      <c r="CB172" s="1"/>
-      <c r="CC172" s="1"/>
-      <c r="CD172" s="1"/>
+      <c r="BW172" s="12"/>
+      <c r="BX172" s="12"/>
+      <c r="BY172" s="12"/>
+      <c r="BZ172" s="12"/>
+      <c r="CA172" s="12"/>
+      <c r="CB172" s="12"/>
+      <c r="CC172" s="12"/>
+      <c r="CD172" s="12"/>
       <c r="CE172" s="1"/>
-      <c r="CF172" s="1"/>
+      <c r="CF172" s="18"/>
       <c r="CG172" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>443</v>
+        <v>290</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C173" s="11"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
+      <c r="C173" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D173" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K173" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M173" s="2"/>
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
+      <c r="Q173" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="R173" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="S173" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="V173" s="1"/>
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
@@ -20758,7 +20768,9 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
-      <c r="AG173" s="1"/>
+      <c r="AG173" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
@@ -20779,18 +20791,19 @@
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
       <c r="BA173" s="1"/>
-      <c r="BB173" s="1"/>
-      <c r="BC173" s="1"/>
-      <c r="BD173" s="1"/>
-      <c r="BE173" s="1"/>
-      <c r="BF173" s="1"/>
+      <c r="BB173" s="4"/>
+      <c r="BD173" s="2"/>
+      <c r="BE173" s="3"/>
+      <c r="BF173" s="2"/>
       <c r="BG173" s="1"/>
       <c r="BH173" s="1"/>
       <c r="BI173" s="11"/>
       <c r="BJ173" s="1"/>
       <c r="BK173" s="1"/>
       <c r="BL173" s="1"/>
-      <c r="BM173" s="1"/>
+      <c r="BM173" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="BN173" s="1"/>
       <c r="BO173" s="1"/>
       <c r="BP173" s="1"/>
@@ -20800,23 +20813,23 @@
       <c r="BT173" s="1"/>
       <c r="BU173" s="1"/>
       <c r="BV173" s="1"/>
-      <c r="BW173" s="1"/>
-      <c r="BX173" s="1"/>
-      <c r="BY173" s="1"/>
-      <c r="BZ173" s="1"/>
-      <c r="CA173" s="1"/>
-      <c r="CB173" s="1"/>
-      <c r="CC173" s="1"/>
-      <c r="CD173" s="1"/>
+      <c r="BW173" s="12"/>
+      <c r="BX173" s="12"/>
+      <c r="BY173" s="12"/>
+      <c r="BZ173" s="12"/>
+      <c r="CA173" s="12"/>
+      <c r="CB173" s="12"/>
+      <c r="CC173" s="12"/>
+      <c r="CD173" s="12"/>
       <c r="CE173" s="1"/>
       <c r="CF173" s="18"/>
       <c r="CG173" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>367</v>
@@ -20831,7 +20844,7 @@
         <v>53</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>444</v>
+        <v>327</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="2" t="s">
@@ -20889,13 +20902,19 @@
       <c r="AX174" s="1"/>
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
-      <c r="BA174" s="1"/>
+      <c r="BA174" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="BB174" s="1"/>
       <c r="BC174" s="1"/>
       <c r="BD174" s="1"/>
       <c r="BE174" s="1"/>
-      <c r="BF174" s="1"/>
-      <c r="BG174" s="4"/>
+      <c r="BF174" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG174" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="BH174" s="1"/>
       <c r="BI174" s="1"/>
       <c r="BJ174" s="1"/>
@@ -20922,18 +20941,26 @@
       <c r="CE174" s="1"/>
       <c r="CF174" s="1"/>
       <c r="CG174" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="175" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A175" s="7"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="175" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C175" s="11"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
+      <c r="G175" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>444</v>
+      </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
@@ -21009,26 +21036,50 @@
       <c r="CC175" s="1"/>
       <c r="CD175" s="1"/>
       <c r="CE175" s="1"/>
-      <c r="CF175" s="1"/>
-      <c r="CG175" s="1"/>
-    </row>
-    <row r="176" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A176" s="7"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="CF175" s="18"/>
+      <c r="CG175" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="176" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
+      <c r="G176" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
+      <c r="J176" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K176" t="s">
+        <v>1</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
+      <c r="P176" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -21071,9 +21122,9 @@
       <c r="BD176" s="1"/>
       <c r="BE176" s="1"/>
       <c r="BF176" s="1"/>
-      <c r="BG176" s="1"/>
+      <c r="BG176" s="4"/>
       <c r="BH176" s="1"/>
-      <c r="BI176" s="11"/>
+      <c r="BI176" s="1"/>
       <c r="BJ176" s="1"/>
       <c r="BK176" s="1"/>
       <c r="BL176" s="1"/>
@@ -21097,9 +21148,11 @@
       <c r="CD176" s="1"/>
       <c r="CE176" s="1"/>
       <c r="CF176" s="1"/>
-      <c r="CG176" s="1"/>
-    </row>
-    <row r="177" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="CG176" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -21186,7 +21239,7 @@
       <c r="CF177" s="1"/>
       <c r="CG177" s="1"/>
     </row>
-    <row r="178" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="7"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -21273,7 +21326,7 @@
       <c r="CF178" s="1"/>
       <c r="CG178" s="1"/>
     </row>
-    <row r="179" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -21360,7 +21413,7 @@
       <c r="CF179" s="1"/>
       <c r="CG179" s="1"/>
     </row>
-    <row r="180" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -21447,7 +21500,7 @@
       <c r="CF180" s="1"/>
       <c r="CG180" s="1"/>
     </row>
-    <row r="181" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="7"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -21534,7 +21587,7 @@
       <c r="CF181" s="1"/>
       <c r="CG181" s="1"/>
     </row>
-    <row r="182" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -21621,7 +21674,7 @@
       <c r="CF182" s="1"/>
       <c r="CG182" s="1"/>
     </row>
-    <row r="183" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="7"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -21708,7 +21761,7 @@
       <c r="CF183" s="1"/>
       <c r="CG183" s="1"/>
     </row>
-    <row r="184" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="7"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -21795,7 +21848,7 @@
       <c r="CF184" s="1"/>
       <c r="CG184" s="1"/>
     </row>
-    <row r="185" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -21882,7 +21935,7 @@
       <c r="CF185" s="1"/>
       <c r="CG185" s="1"/>
     </row>
-    <row r="186" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -21969,7 +22022,7 @@
       <c r="CF186" s="1"/>
       <c r="CG186" s="1"/>
     </row>
-    <row r="187" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -22056,7 +22109,7 @@
       <c r="CF187" s="1"/>
       <c r="CG187" s="1"/>
     </row>
-    <row r="188" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -22143,10 +22196,10 @@
       <c r="CF188" s="1"/>
       <c r="CG188" s="1"/>
     </row>
-    <row r="189" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7"/>
       <c r="B189" s="1"/>
-      <c r="C189" s="11"/>
+      <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -22230,10 +22283,10 @@
       <c r="CF189" s="1"/>
       <c r="CG189" s="1"/>
     </row>
-    <row r="190" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7"/>
       <c r="B190" s="1"/>
-      <c r="C190" s="11"/>
+      <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -22317,7 +22370,7 @@
       <c r="CF190" s="1"/>
       <c r="CG190" s="1"/>
     </row>
-    <row r="191" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="7"/>
       <c r="B191" s="1"/>
       <c r="C191" s="11"/>
@@ -22404,7 +22457,7 @@
       <c r="CF191" s="1"/>
       <c r="CG191" s="1"/>
     </row>
-    <row r="192" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7"/>
       <c r="B192" s="1"/>
       <c r="C192" s="11"/>
@@ -22491,7 +22544,7 @@
       <c r="CF192" s="1"/>
       <c r="CG192" s="1"/>
     </row>
-    <row r="193" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7"/>
       <c r="B193" s="1"/>
       <c r="C193" s="11"/>
@@ -22578,7 +22631,7 @@
       <c r="CF193" s="1"/>
       <c r="CG193" s="1"/>
     </row>
-    <row r="194" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7"/>
       <c r="B194" s="1"/>
       <c r="C194" s="11"/>
@@ -22665,7 +22718,7 @@
       <c r="CF194" s="1"/>
       <c r="CG194" s="1"/>
     </row>
-    <row r="195" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7"/>
       <c r="B195" s="1"/>
       <c r="C195" s="11"/>
@@ -22752,7 +22805,7 @@
       <c r="CF195" s="1"/>
       <c r="CG195" s="1"/>
     </row>
-    <row r="196" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7"/>
       <c r="B196" s="1"/>
       <c r="C196" s="11"/>
@@ -22839,7 +22892,7 @@
       <c r="CF196" s="1"/>
       <c r="CG196" s="1"/>
     </row>
-    <row r="197" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="7"/>
       <c r="B197" s="1"/>
       <c r="C197" s="11"/>
@@ -22926,7 +22979,7 @@
       <c r="CF197" s="1"/>
       <c r="CG197" s="1"/>
     </row>
-    <row r="198" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="7"/>
       <c r="B198" s="1"/>
       <c r="C198" s="11"/>
@@ -23013,7 +23066,7 @@
       <c r="CF198" s="1"/>
       <c r="CG198" s="1"/>
     </row>
-    <row r="199" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="7"/>
       <c r="B199" s="1"/>
       <c r="C199" s="11"/>
@@ -23100,7 +23153,7 @@
       <c r="CF199" s="1"/>
       <c r="CG199" s="1"/>
     </row>
-    <row r="200" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="7"/>
       <c r="B200" s="1"/>
       <c r="C200" s="11"/>
@@ -23187,7 +23240,7 @@
       <c r="CF200" s="1"/>
       <c r="CG200" s="1"/>
     </row>
-    <row r="201" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="7"/>
       <c r="B201" s="1"/>
       <c r="C201" s="11"/>
@@ -23274,7 +23327,7 @@
       <c r="CF201" s="1"/>
       <c r="CG201" s="1"/>
     </row>
-    <row r="202" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7"/>
       <c r="B202" s="1"/>
       <c r="C202" s="11"/>
@@ -23361,7 +23414,7 @@
       <c r="CF202" s="1"/>
       <c r="CG202" s="1"/>
     </row>
-    <row r="203" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7"/>
       <c r="B203" s="1"/>
       <c r="C203" s="11"/>
@@ -23448,7 +23501,7 @@
       <c r="CF203" s="1"/>
       <c r="CG203" s="1"/>
     </row>
-    <row r="204" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7"/>
       <c r="B204" s="1"/>
       <c r="C204" s="11"/>
@@ -23535,7 +23588,7 @@
       <c r="CF204" s="1"/>
       <c r="CG204" s="1"/>
     </row>
-    <row r="205" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7"/>
       <c r="B205" s="1"/>
       <c r="C205" s="11"/>
@@ -23622,7 +23675,7 @@
       <c r="CF205" s="1"/>
       <c r="CG205" s="1"/>
     </row>
-    <row r="206" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
       <c r="B206" s="1"/>
       <c r="C206" s="11"/>
@@ -23709,7 +23762,7 @@
       <c r="CF206" s="1"/>
       <c r="CG206" s="1"/>
     </row>
-    <row r="207" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7"/>
       <c r="B207" s="1"/>
       <c r="C207" s="11"/>
@@ -23796,7 +23849,7 @@
       <c r="CF207" s="1"/>
       <c r="CG207" s="1"/>
     </row>
-    <row r="208" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7"/>
       <c r="B208" s="1"/>
       <c r="C208" s="11"/>
@@ -23883,7 +23936,7 @@
       <c r="CF208" s="1"/>
       <c r="CG208" s="1"/>
     </row>
-    <row r="209" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7"/>
       <c r="B209" s="1"/>
       <c r="C209" s="11"/>
@@ -23970,181 +24023,181 @@
       <c r="CF209" s="1"/>
       <c r="CG209" s="1"/>
     </row>
-    <row r="210" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="2"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="2"/>
-      <c r="E210" s="2"/>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="2"/>
-      <c r="J210" s="2"/>
-      <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
-      <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
-      <c r="P210" s="2"/>
-      <c r="Q210" s="2"/>
-      <c r="R210" s="2"/>
-      <c r="S210" s="2"/>
-      <c r="T210" s="2"/>
-      <c r="U210" s="2"/>
-      <c r="V210" s="2"/>
-      <c r="W210" s="2"/>
-      <c r="X210" s="2"/>
-      <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
-      <c r="AA210" s="2"/>
-      <c r="AB210" s="2"/>
-      <c r="AC210" s="2"/>
-      <c r="AD210" s="2"/>
-      <c r="AE210" s="2"/>
-      <c r="AF210" s="2"/>
-      <c r="AG210" s="2"/>
-      <c r="AH210" s="2"/>
-      <c r="AI210" s="2"/>
-      <c r="AJ210" s="2"/>
-      <c r="AK210" s="2"/>
-      <c r="AL210" s="2"/>
-      <c r="AM210" s="2"/>
-      <c r="AN210" s="2"/>
-      <c r="AO210" s="2"/>
-      <c r="AP210" s="2"/>
-      <c r="AQ210" s="2"/>
-      <c r="AR210" s="2"/>
-      <c r="AS210" s="2"/>
-      <c r="AT210" s="2"/>
-      <c r="AU210" s="2"/>
-      <c r="AV210" s="2"/>
-      <c r="AW210" s="2"/>
-      <c r="AX210" s="2"/>
-      <c r="AY210" s="2"/>
-      <c r="AZ210" s="2"/>
-      <c r="BA210" s="2"/>
-      <c r="BB210" s="2"/>
-      <c r="BC210" s="2"/>
-      <c r="BD210" s="2"/>
-      <c r="BE210" s="2"/>
-      <c r="BF210" s="2"/>
-      <c r="BG210" s="2"/>
-      <c r="BH210" s="2"/>
-      <c r="BI210" s="3"/>
-      <c r="BJ210" s="2"/>
-      <c r="BK210" s="2"/>
-      <c r="BL210" s="2"/>
-      <c r="BM210" s="2"/>
-      <c r="BN210" s="2"/>
-      <c r="BO210" s="2"/>
-      <c r="BP210" s="2"/>
-      <c r="BQ210" s="2"/>
-      <c r="BR210" s="2"/>
-      <c r="BS210" s="2"/>
-      <c r="BT210" s="2"/>
-      <c r="BU210" s="2"/>
-      <c r="BV210" s="2"/>
-      <c r="BW210" s="2"/>
-      <c r="BX210" s="2"/>
-      <c r="BY210" s="2"/>
-      <c r="BZ210" s="2"/>
-      <c r="CA210" s="2"/>
-      <c r="CB210" s="2"/>
-      <c r="CC210" s="2"/>
-      <c r="CD210" s="2"/>
-      <c r="CE210" s="2"/>
-      <c r="CF210" s="2"/>
-      <c r="CG210" s="2"/>
-    </row>
-    <row r="211" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="2"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2"/>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="2"/>
-      <c r="J211" s="2"/>
-      <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
-      <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
-      <c r="P211" s="2"/>
-      <c r="Q211" s="2"/>
-      <c r="R211" s="2"/>
-      <c r="S211" s="2"/>
-      <c r="T211" s="2"/>
-      <c r="U211" s="2"/>
-      <c r="V211" s="2"/>
-      <c r="W211" s="2"/>
-      <c r="X211" s="2"/>
-      <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
-      <c r="AA211" s="2"/>
-      <c r="AB211" s="2"/>
-      <c r="AC211" s="2"/>
-      <c r="AD211" s="2"/>
-      <c r="AE211" s="2"/>
-      <c r="AF211" s="2"/>
-      <c r="AG211" s="2"/>
-      <c r="AH211" s="2"/>
-      <c r="AI211" s="2"/>
-      <c r="AJ211" s="2"/>
-      <c r="AK211" s="2"/>
-      <c r="AL211" s="2"/>
-      <c r="AM211" s="2"/>
-      <c r="AN211" s="2"/>
-      <c r="AO211" s="2"/>
-      <c r="AP211" s="2"/>
-      <c r="AQ211" s="2"/>
-      <c r="AR211" s="2"/>
-      <c r="AS211" s="2"/>
-      <c r="AT211" s="2"/>
-      <c r="AU211" s="2"/>
-      <c r="AV211" s="2"/>
-      <c r="AW211" s="2"/>
-      <c r="AX211" s="2"/>
-      <c r="AY211" s="2"/>
-      <c r="AZ211" s="2"/>
-      <c r="BA211" s="2"/>
-      <c r="BB211" s="2"/>
-      <c r="BC211" s="2"/>
-      <c r="BD211" s="2"/>
-      <c r="BE211" s="2"/>
-      <c r="BF211" s="2"/>
-      <c r="BG211" s="2"/>
-      <c r="BH211" s="2"/>
-      <c r="BI211" s="3"/>
-      <c r="BJ211" s="2"/>
-      <c r="BK211" s="2"/>
-      <c r="BL211" s="2"/>
-      <c r="BM211" s="2"/>
-      <c r="BN211" s="2"/>
-      <c r="BO211" s="2"/>
-      <c r="BP211" s="2"/>
-      <c r="BQ211" s="2"/>
-      <c r="BR211" s="2"/>
-      <c r="BS211" s="2"/>
-      <c r="BT211" s="2"/>
-      <c r="BU211" s="2"/>
-      <c r="BV211" s="2"/>
-      <c r="BW211" s="2"/>
-      <c r="BX211" s="2"/>
-      <c r="BY211" s="2"/>
-      <c r="BZ211" s="2"/>
-      <c r="CA211" s="2"/>
-      <c r="CB211" s="2"/>
-      <c r="CC211" s="2"/>
-      <c r="CD211" s="2"/>
-      <c r="CE211" s="2"/>
-      <c r="CF211" s="2"/>
-      <c r="CG211" s="2"/>
-    </row>
-    <row r="212" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="7"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="X210" s="1"/>
+      <c r="Y210" s="1"/>
+      <c r="Z210" s="1"/>
+      <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
+      <c r="AC210" s="1"/>
+      <c r="AD210" s="1"/>
+      <c r="AE210" s="1"/>
+      <c r="AF210" s="1"/>
+      <c r="AG210" s="1"/>
+      <c r="AH210" s="1"/>
+      <c r="AI210" s="1"/>
+      <c r="AJ210" s="1"/>
+      <c r="AK210" s="1"/>
+      <c r="AL210" s="1"/>
+      <c r="AM210" s="1"/>
+      <c r="AN210" s="1"/>
+      <c r="AO210" s="1"/>
+      <c r="AP210" s="1"/>
+      <c r="AQ210" s="1"/>
+      <c r="AR210" s="1"/>
+      <c r="AS210" s="1"/>
+      <c r="AT210" s="1"/>
+      <c r="AU210" s="1"/>
+      <c r="AV210" s="1"/>
+      <c r="AW210" s="1"/>
+      <c r="AX210" s="1"/>
+      <c r="AY210" s="1"/>
+      <c r="AZ210" s="1"/>
+      <c r="BA210" s="1"/>
+      <c r="BB210" s="1"/>
+      <c r="BC210" s="1"/>
+      <c r="BD210" s="1"/>
+      <c r="BE210" s="1"/>
+      <c r="BF210" s="1"/>
+      <c r="BG210" s="1"/>
+      <c r="BH210" s="1"/>
+      <c r="BI210" s="11"/>
+      <c r="BJ210" s="1"/>
+      <c r="BK210" s="1"/>
+      <c r="BL210" s="1"/>
+      <c r="BM210" s="1"/>
+      <c r="BN210" s="1"/>
+      <c r="BO210" s="1"/>
+      <c r="BP210" s="1"/>
+      <c r="BQ210" s="1"/>
+      <c r="BR210" s="1"/>
+      <c r="BS210" s="1"/>
+      <c r="BT210" s="1"/>
+      <c r="BU210" s="1"/>
+      <c r="BV210" s="1"/>
+      <c r="BW210" s="1"/>
+      <c r="BX210" s="1"/>
+      <c r="BY210" s="1"/>
+      <c r="BZ210" s="1"/>
+      <c r="CA210" s="1"/>
+      <c r="CB210" s="1"/>
+      <c r="CC210" s="1"/>
+      <c r="CD210" s="1"/>
+      <c r="CE210" s="1"/>
+      <c r="CF210" s="1"/>
+      <c r="CG210" s="1"/>
+    </row>
+    <row r="211" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="11"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="X211" s="1"/>
+      <c r="Y211" s="1"/>
+      <c r="Z211" s="1"/>
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1"/>
+      <c r="AE211" s="1"/>
+      <c r="AF211" s="1"/>
+      <c r="AG211" s="1"/>
+      <c r="AH211" s="1"/>
+      <c r="AI211" s="1"/>
+      <c r="AJ211" s="1"/>
+      <c r="AK211" s="1"/>
+      <c r="AL211" s="1"/>
+      <c r="AM211" s="1"/>
+      <c r="AN211" s="1"/>
+      <c r="AO211" s="1"/>
+      <c r="AP211" s="1"/>
+      <c r="AQ211" s="1"/>
+      <c r="AR211" s="1"/>
+      <c r="AS211" s="1"/>
+      <c r="AT211" s="1"/>
+      <c r="AU211" s="1"/>
+      <c r="AV211" s="1"/>
+      <c r="AW211" s="1"/>
+      <c r="AX211" s="1"/>
+      <c r="AY211" s="1"/>
+      <c r="AZ211" s="1"/>
+      <c r="BA211" s="1"/>
+      <c r="BB211" s="1"/>
+      <c r="BC211" s="1"/>
+      <c r="BD211" s="1"/>
+      <c r="BE211" s="1"/>
+      <c r="BF211" s="1"/>
+      <c r="BG211" s="1"/>
+      <c r="BH211" s="1"/>
+      <c r="BI211" s="11"/>
+      <c r="BJ211" s="1"/>
+      <c r="BK211" s="1"/>
+      <c r="BL211" s="1"/>
+      <c r="BM211" s="1"/>
+      <c r="BN211" s="1"/>
+      <c r="BO211" s="1"/>
+      <c r="BP211" s="1"/>
+      <c r="BQ211" s="1"/>
+      <c r="BR211" s="1"/>
+      <c r="BS211" s="1"/>
+      <c r="BT211" s="1"/>
+      <c r="BU211" s="1"/>
+      <c r="BV211" s="1"/>
+      <c r="BW211" s="1"/>
+      <c r="BX211" s="1"/>
+      <c r="BY211" s="1"/>
+      <c r="BZ211" s="1"/>
+      <c r="CA211" s="1"/>
+      <c r="CB211" s="1"/>
+      <c r="CC211" s="1"/>
+      <c r="CD211" s="1"/>
+      <c r="CE211" s="1"/>
+      <c r="CF211" s="1"/>
+      <c r="CG211" s="1"/>
+    </row>
+    <row r="212" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="8"/>
       <c r="B212" s="2"/>
       <c r="C212" s="3"/>
@@ -24231,7 +24284,7 @@
       <c r="CF212" s="2"/>
       <c r="CG212" s="2"/>
     </row>
-    <row r="213" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="8"/>
       <c r="B213" s="2"/>
       <c r="C213" s="3"/>
@@ -24318,7 +24371,7 @@
       <c r="CF213" s="2"/>
       <c r="CG213" s="2"/>
     </row>
-    <row r="214" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="8"/>
       <c r="B214" s="2"/>
       <c r="C214" s="3"/>
@@ -24405,7 +24458,7 @@
       <c r="CF214" s="2"/>
       <c r="CG214" s="2"/>
     </row>
-    <row r="215" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8"/>
       <c r="B215" s="2"/>
       <c r="C215" s="3"/>
@@ -24492,7 +24545,7 @@
       <c r="CF215" s="2"/>
       <c r="CG215" s="2"/>
     </row>
-    <row r="216" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="8"/>
       <c r="B216" s="2"/>
       <c r="C216" s="3"/>
@@ -24579,7 +24632,7 @@
       <c r="CF216" s="2"/>
       <c r="CG216" s="2"/>
     </row>
-    <row r="217" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="8"/>
       <c r="B217" s="2"/>
       <c r="C217" s="3"/>
@@ -24666,7 +24719,7 @@
       <c r="CF217" s="2"/>
       <c r="CG217" s="2"/>
     </row>
-    <row r="218" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="8"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3"/>
@@ -24753,7 +24806,7 @@
       <c r="CF218" s="2"/>
       <c r="CG218" s="2"/>
     </row>
-    <row r="219" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="8"/>
       <c r="B219" s="2"/>
       <c r="C219" s="3"/>
@@ -24840,7 +24893,7 @@
       <c r="CF219" s="2"/>
       <c r="CG219" s="2"/>
     </row>
-    <row r="220" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3"/>
@@ -24927,7 +24980,7 @@
       <c r="CF220" s="2"/>
       <c r="CG220" s="2"/>
     </row>
-    <row r="221" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="8"/>
       <c r="B221" s="2"/>
       <c r="C221" s="3"/>
@@ -25014,7 +25067,7 @@
       <c r="CF221" s="2"/>
       <c r="CG221" s="2"/>
     </row>
-    <row r="222" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8"/>
       <c r="B222" s="2"/>
       <c r="C222" s="3"/>
@@ -25101,7 +25154,7 @@
       <c r="CF222" s="2"/>
       <c r="CG222" s="2"/>
     </row>
-    <row r="223" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="8"/>
       <c r="B223" s="2"/>
       <c r="C223" s="3"/>
@@ -25188,7 +25241,7 @@
       <c r="CF223" s="2"/>
       <c r="CG223" s="2"/>
     </row>
-    <row r="224" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="8"/>
       <c r="B224" s="2"/>
       <c r="C224" s="3"/>
@@ -25275,7 +25328,7 @@
       <c r="CF224" s="2"/>
       <c r="CG224" s="2"/>
     </row>
-    <row r="225" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="8"/>
       <c r="B225" s="2"/>
       <c r="C225" s="3"/>
@@ -25362,7 +25415,7 @@
       <c r="CF225" s="2"/>
       <c r="CG225" s="2"/>
     </row>
-    <row r="226" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="8"/>
       <c r="B226" s="2"/>
       <c r="C226" s="3"/>
@@ -25449,7 +25502,7 @@
       <c r="CF226" s="2"/>
       <c r="CG226" s="2"/>
     </row>
-    <row r="227" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="8"/>
       <c r="B227" s="2"/>
       <c r="C227" s="3"/>
@@ -25536,7 +25589,7 @@
       <c r="CF227" s="2"/>
       <c r="CG227" s="2"/>
     </row>
-    <row r="228" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="8"/>
       <c r="B228" s="2"/>
       <c r="C228" s="3"/>
@@ -25623,7 +25676,7 @@
       <c r="CF228" s="2"/>
       <c r="CG228" s="2"/>
     </row>
-    <row r="229" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="8"/>
       <c r="B229" s="2"/>
       <c r="C229" s="3"/>
@@ -25710,7 +25763,7 @@
       <c r="CF229" s="2"/>
       <c r="CG229" s="2"/>
     </row>
-    <row r="230" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8"/>
       <c r="B230" s="2"/>
       <c r="C230" s="3"/>
@@ -25797,7 +25850,7 @@
       <c r="CF230" s="2"/>
       <c r="CG230" s="2"/>
     </row>
-    <row r="231" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="8"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3"/>
@@ -25884,7 +25937,7 @@
       <c r="CF231" s="2"/>
       <c r="CG231" s="2"/>
     </row>
-    <row r="232" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8"/>
       <c r="B232" s="2"/>
       <c r="C232" s="3"/>
@@ -25971,7 +26024,7 @@
       <c r="CF232" s="2"/>
       <c r="CG232" s="2"/>
     </row>
-    <row r="233" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3"/>
@@ -26058,7 +26111,7 @@
       <c r="CF233" s="2"/>
       <c r="CG233" s="2"/>
     </row>
-    <row r="234" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8"/>
       <c r="B234" s="2"/>
       <c r="C234" s="3"/>
@@ -26145,7 +26198,7 @@
       <c r="CF234" s="2"/>
       <c r="CG234" s="2"/>
     </row>
-    <row r="235" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="8"/>
       <c r="B235" s="2"/>
       <c r="C235" s="3"/>
@@ -26232,7 +26285,7 @@
       <c r="CF235" s="2"/>
       <c r="CG235" s="2"/>
     </row>
-    <row r="236" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="8"/>
       <c r="B236" s="2"/>
       <c r="C236" s="3"/>
@@ -26319,7 +26372,7 @@
       <c r="CF236" s="2"/>
       <c r="CG236" s="2"/>
     </row>
-    <row r="237" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8"/>
       <c r="B237" s="2"/>
       <c r="C237" s="3"/>
@@ -26406,7 +26459,7 @@
       <c r="CF237" s="2"/>
       <c r="CG237" s="2"/>
     </row>
-    <row r="238" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8"/>
       <c r="B238" s="2"/>
       <c r="C238" s="3"/>
@@ -26493,7 +26546,7 @@
       <c r="CF238" s="2"/>
       <c r="CG238" s="2"/>
     </row>
-    <row r="239" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8"/>
       <c r="B239" s="2"/>
       <c r="C239" s="3"/>
@@ -26580,7 +26633,7 @@
       <c r="CF239" s="2"/>
       <c r="CG239" s="2"/>
     </row>
-    <row r="240" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="8"/>
       <c r="B240" s="2"/>
       <c r="C240" s="3"/>
@@ -26667,7 +26720,7 @@
       <c r="CF240" s="2"/>
       <c r="CG240" s="2"/>
     </row>
-    <row r="241" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="8"/>
       <c r="B241" s="2"/>
       <c r="C241" s="3"/>
@@ -26754,7 +26807,7 @@
       <c r="CF241" s="2"/>
       <c r="CG241" s="2"/>
     </row>
-    <row r="242" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8"/>
       <c r="B242" s="2"/>
       <c r="C242" s="3"/>
@@ -26841,7 +26894,7 @@
       <c r="CF242" s="2"/>
       <c r="CG242" s="2"/>
     </row>
-    <row r="243" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="8"/>
       <c r="B243" s="2"/>
       <c r="C243" s="3"/>
@@ -26928,7 +26981,7 @@
       <c r="CF243" s="2"/>
       <c r="CG243" s="2"/>
     </row>
-    <row r="244" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
       <c r="B244" s="2"/>
       <c r="C244" s="3"/>
@@ -27015,7 +27068,7 @@
       <c r="CF244" s="2"/>
       <c r="CG244" s="2"/>
     </row>
-    <row r="245" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="8"/>
       <c r="B245" s="2"/>
       <c r="C245" s="3"/>
@@ -27102,7 +27155,7 @@
       <c r="CF245" s="2"/>
       <c r="CG245" s="2"/>
     </row>
-    <row r="246" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="8"/>
       <c r="B246" s="2"/>
       <c r="C246" s="3"/>
@@ -27189,7 +27242,7 @@
       <c r="CF246" s="2"/>
       <c r="CG246" s="2"/>
     </row>
-    <row r="247" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="8"/>
       <c r="B247" s="2"/>
       <c r="C247" s="3"/>
@@ -27276,7 +27329,7 @@
       <c r="CF247" s="2"/>
       <c r="CG247" s="2"/>
     </row>
-    <row r="248" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8"/>
       <c r="B248" s="2"/>
       <c r="C248" s="3"/>
@@ -27363,7 +27416,7 @@
       <c r="CF248" s="2"/>
       <c r="CG248" s="2"/>
     </row>
-    <row r="249" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8"/>
       <c r="B249" s="2"/>
       <c r="C249" s="3"/>
@@ -27450,7 +27503,7 @@
       <c r="CF249" s="2"/>
       <c r="CG249" s="2"/>
     </row>
-    <row r="250" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="8"/>
       <c r="B250" s="2"/>
       <c r="C250" s="3"/>
@@ -27537,7 +27590,7 @@
       <c r="CF250" s="2"/>
       <c r="CG250" s="2"/>
     </row>
-    <row r="251" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="8"/>
       <c r="B251" s="2"/>
       <c r="C251" s="3"/>
@@ -27624,7 +27677,7 @@
       <c r="CF251" s="2"/>
       <c r="CG251" s="2"/>
     </row>
-    <row r="252" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="8"/>
       <c r="B252" s="2"/>
       <c r="C252" s="3"/>
@@ -27711,7 +27764,7 @@
       <c r="CF252" s="2"/>
       <c r="CG252" s="2"/>
     </row>
-    <row r="253" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="8"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3"/>
@@ -27798,7 +27851,7 @@
       <c r="CF253" s="2"/>
       <c r="CG253" s="2"/>
     </row>
-    <row r="254" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="8"/>
       <c r="B254" s="2"/>
       <c r="C254" s="3"/>
@@ -27885,7 +27938,7 @@
       <c r="CF254" s="2"/>
       <c r="CG254" s="2"/>
     </row>
-    <row r="255" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3"/>
@@ -27972,7 +28025,7 @@
       <c r="CF255" s="2"/>
       <c r="CG255" s="2"/>
     </row>
-    <row r="256" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
@@ -28059,7 +28112,7 @@
       <c r="CF256" s="2"/>
       <c r="CG256" s="2"/>
     </row>
-    <row r="257" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="8"/>
       <c r="B257" s="2"/>
       <c r="C257" s="3"/>
@@ -28146,7 +28199,7 @@
       <c r="CF257" s="2"/>
       <c r="CG257" s="2"/>
     </row>
-    <row r="258" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="8"/>
       <c r="B258" s="2"/>
       <c r="C258" s="3"/>
@@ -28233,7 +28286,7 @@
       <c r="CF258" s="2"/>
       <c r="CG258" s="2"/>
     </row>
-    <row r="259" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="8"/>
       <c r="B259" s="2"/>
       <c r="C259" s="3"/>
@@ -28320,7 +28373,7 @@
       <c r="CF259" s="2"/>
       <c r="CG259" s="2"/>
     </row>
-    <row r="260" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8"/>
       <c r="B260" s="2"/>
       <c r="C260" s="3"/>
@@ -28407,7 +28460,7 @@
       <c r="CF260" s="2"/>
       <c r="CG260" s="2"/>
     </row>
-    <row r="261" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8"/>
       <c r="B261" s="2"/>
       <c r="C261" s="3"/>
@@ -28494,7 +28547,7 @@
       <c r="CF261" s="2"/>
       <c r="CG261" s="2"/>
     </row>
-    <row r="262" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8"/>
       <c r="B262" s="2"/>
       <c r="C262" s="3"/>
@@ -28581,7 +28634,7 @@
       <c r="CF262" s="2"/>
       <c r="CG262" s="2"/>
     </row>
-    <row r="263" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="8"/>
       <c r="B263" s="2"/>
       <c r="C263" s="3"/>
@@ -28668,7 +28721,7 @@
       <c r="CF263" s="2"/>
       <c r="CG263" s="2"/>
     </row>
-    <row r="264" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="8"/>
       <c r="B264" s="2"/>
       <c r="C264" s="3"/>
@@ -28755,7 +28808,7 @@
       <c r="CF264" s="2"/>
       <c r="CG264" s="2"/>
     </row>
-    <row r="265" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="8"/>
       <c r="B265" s="2"/>
       <c r="C265" s="3"/>
@@ -28842,7 +28895,7 @@
       <c r="CF265" s="2"/>
       <c r="CG265" s="2"/>
     </row>
-    <row r="266" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="8"/>
       <c r="B266" s="2"/>
       <c r="C266" s="3"/>
@@ -28929,7 +28982,7 @@
       <c r="CF266" s="2"/>
       <c r="CG266" s="2"/>
     </row>
-    <row r="267" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="8"/>
       <c r="B267" s="2"/>
       <c r="C267" s="3"/>
@@ -29016,7 +29069,7 @@
       <c r="CF267" s="2"/>
       <c r="CG267" s="2"/>
     </row>
-    <row r="268" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="8"/>
       <c r="B268" s="2"/>
       <c r="C268" s="3"/>
@@ -29103,7 +29156,7 @@
       <c r="CF268" s="2"/>
       <c r="CG268" s="2"/>
     </row>
-    <row r="269" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="8"/>
       <c r="B269" s="2"/>
       <c r="C269" s="3"/>
@@ -29190,7 +29243,7 @@
       <c r="CF269" s="2"/>
       <c r="CG269" s="2"/>
     </row>
-    <row r="270" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="8"/>
       <c r="B270" s="2"/>
       <c r="C270" s="3"/>
@@ -29277,7 +29330,7 @@
       <c r="CF270" s="2"/>
       <c r="CG270" s="2"/>
     </row>
-    <row r="271" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="8"/>
       <c r="B271" s="2"/>
       <c r="C271" s="3"/>
@@ -29364,7 +29417,7 @@
       <c r="CF271" s="2"/>
       <c r="CG271" s="2"/>
     </row>
-    <row r="272" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="8"/>
       <c r="B272" s="2"/>
       <c r="C272" s="3"/>
@@ -29451,8 +29504,8 @@
       <c r="CF272" s="2"/>
       <c r="CG272" s="2"/>
     </row>
-    <row r="273" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
+    <row r="273" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="8"/>
       <c r="B273" s="2"/>
       <c r="C273" s="3"/>
       <c r="D273" s="2"/>
@@ -29538,8 +29591,8 @@
       <c r="CF273" s="2"/>
       <c r="CG273" s="2"/>
     </row>
-    <row r="274" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
+    <row r="274" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="8"/>
       <c r="B274" s="2"/>
       <c r="C274" s="3"/>
       <c r="D274" s="2"/>
@@ -29625,7 +29678,7 @@
       <c r="CF274" s="2"/>
       <c r="CG274" s="2"/>
     </row>
-    <row r="275" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="3"/>
@@ -29712,7 +29765,7 @@
       <c r="CF275" s="2"/>
       <c r="CG275" s="2"/>
     </row>
-    <row r="276" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="3"/>
@@ -29799,7 +29852,7 @@
       <c r="CF276" s="2"/>
       <c r="CG276" s="2"/>
     </row>
-    <row r="277" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="3"/>
@@ -29886,7 +29939,7 @@
       <c r="CF277" s="2"/>
       <c r="CG277" s="2"/>
     </row>
-    <row r="278" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="3"/>
@@ -29973,7 +30026,7 @@
       <c r="CF278" s="2"/>
       <c r="CG278" s="2"/>
     </row>
-    <row r="279" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="3"/>
@@ -30060,7 +30113,7 @@
       <c r="CF279" s="2"/>
       <c r="CG279" s="2"/>
     </row>
-    <row r="280" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="3"/>
@@ -30147,7 +30200,7 @@
       <c r="CF280" s="2"/>
       <c r="CG280" s="2"/>
     </row>
-    <row r="281" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="3"/>
@@ -30234,7 +30287,7 @@
       <c r="CF281" s="2"/>
       <c r="CG281" s="2"/>
     </row>
-    <row r="282" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="3"/>
@@ -30321,64 +30374,238 @@
       <c r="CF282" s="2"/>
       <c r="CG282" s="2"/>
     </row>
+    <row r="283" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2"/>
+      <c r="N283" s="2"/>
+      <c r="O283" s="2"/>
+      <c r="P283" s="2"/>
+      <c r="Q283" s="2"/>
+      <c r="R283" s="2"/>
+      <c r="S283" s="2"/>
+      <c r="T283" s="2"/>
+      <c r="U283" s="2"/>
+      <c r="V283" s="2"/>
+      <c r="W283" s="2"/>
+      <c r="X283" s="2"/>
+      <c r="Y283" s="2"/>
+      <c r="Z283" s="2"/>
+      <c r="AA283" s="2"/>
+      <c r="AB283" s="2"/>
+      <c r="AC283" s="2"/>
+      <c r="AD283" s="2"/>
+      <c r="AE283" s="2"/>
+      <c r="AF283" s="2"/>
+      <c r="AG283" s="2"/>
+      <c r="AH283" s="2"/>
+      <c r="AI283" s="2"/>
+      <c r="AJ283" s="2"/>
+      <c r="AK283" s="2"/>
+      <c r="AL283" s="2"/>
+      <c r="AM283" s="2"/>
+      <c r="AN283" s="2"/>
+      <c r="AO283" s="2"/>
+      <c r="AP283" s="2"/>
+      <c r="AQ283" s="2"/>
+      <c r="AR283" s="2"/>
+      <c r="AS283" s="2"/>
+      <c r="AT283" s="2"/>
+      <c r="AU283" s="2"/>
+      <c r="AV283" s="2"/>
+      <c r="AW283" s="2"/>
+      <c r="AX283" s="2"/>
+      <c r="AY283" s="2"/>
+      <c r="AZ283" s="2"/>
+      <c r="BA283" s="2"/>
+      <c r="BB283" s="2"/>
+      <c r="BC283" s="2"/>
+      <c r="BD283" s="2"/>
+      <c r="BE283" s="2"/>
+      <c r="BF283" s="2"/>
+      <c r="BG283" s="2"/>
+      <c r="BH283" s="2"/>
+      <c r="BI283" s="3"/>
+      <c r="BJ283" s="2"/>
+      <c r="BK283" s="2"/>
+      <c r="BL283" s="2"/>
+      <c r="BM283" s="2"/>
+      <c r="BN283" s="2"/>
+      <c r="BO283" s="2"/>
+      <c r="BP283" s="2"/>
+      <c r="BQ283" s="2"/>
+      <c r="BR283" s="2"/>
+      <c r="BS283" s="2"/>
+      <c r="BT283" s="2"/>
+      <c r="BU283" s="2"/>
+      <c r="BV283" s="2"/>
+      <c r="BW283" s="2"/>
+      <c r="BX283" s="2"/>
+      <c r="BY283" s="2"/>
+      <c r="BZ283" s="2"/>
+      <c r="CA283" s="2"/>
+      <c r="CB283" s="2"/>
+      <c r="CC283" s="2"/>
+      <c r="CD283" s="2"/>
+      <c r="CE283" s="2"/>
+      <c r="CF283" s="2"/>
+      <c r="CG283" s="2"/>
+    </row>
+    <row r="284" spans="1:85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
+      <c r="H284" s="2"/>
+      <c r="I284" s="2"/>
+      <c r="J284" s="2"/>
+      <c r="K284" s="2"/>
+      <c r="L284" s="2"/>
+      <c r="M284" s="2"/>
+      <c r="N284" s="2"/>
+      <c r="O284" s="2"/>
+      <c r="P284" s="2"/>
+      <c r="Q284" s="2"/>
+      <c r="R284" s="2"/>
+      <c r="S284" s="2"/>
+      <c r="T284" s="2"/>
+      <c r="U284" s="2"/>
+      <c r="V284" s="2"/>
+      <c r="W284" s="2"/>
+      <c r="X284" s="2"/>
+      <c r="Y284" s="2"/>
+      <c r="Z284" s="2"/>
+      <c r="AA284" s="2"/>
+      <c r="AB284" s="2"/>
+      <c r="AC284" s="2"/>
+      <c r="AD284" s="2"/>
+      <c r="AE284" s="2"/>
+      <c r="AF284" s="2"/>
+      <c r="AG284" s="2"/>
+      <c r="AH284" s="2"/>
+      <c r="AI284" s="2"/>
+      <c r="AJ284" s="2"/>
+      <c r="AK284" s="2"/>
+      <c r="AL284" s="2"/>
+      <c r="AM284" s="2"/>
+      <c r="AN284" s="2"/>
+      <c r="AO284" s="2"/>
+      <c r="AP284" s="2"/>
+      <c r="AQ284" s="2"/>
+      <c r="AR284" s="2"/>
+      <c r="AS284" s="2"/>
+      <c r="AT284" s="2"/>
+      <c r="AU284" s="2"/>
+      <c r="AV284" s="2"/>
+      <c r="AW284" s="2"/>
+      <c r="AX284" s="2"/>
+      <c r="AY284" s="2"/>
+      <c r="AZ284" s="2"/>
+      <c r="BA284" s="2"/>
+      <c r="BB284" s="2"/>
+      <c r="BC284" s="2"/>
+      <c r="BD284" s="2"/>
+      <c r="BE284" s="2"/>
+      <c r="BF284" s="2"/>
+      <c r="BG284" s="2"/>
+      <c r="BH284" s="2"/>
+      <c r="BI284" s="3"/>
+      <c r="BJ284" s="2"/>
+      <c r="BK284" s="2"/>
+      <c r="BL284" s="2"/>
+      <c r="BM284" s="2"/>
+      <c r="BN284" s="2"/>
+      <c r="BO284" s="2"/>
+      <c r="BP284" s="2"/>
+      <c r="BQ284" s="2"/>
+      <c r="BR284" s="2"/>
+      <c r="BS284" s="2"/>
+      <c r="BT284" s="2"/>
+      <c r="BU284" s="2"/>
+      <c r="BV284" s="2"/>
+      <c r="BW284" s="2"/>
+      <c r="BX284" s="2"/>
+      <c r="BY284" s="2"/>
+      <c r="BZ284" s="2"/>
+      <c r="CA284" s="2"/>
+      <c r="CB284" s="2"/>
+      <c r="CC284" s="2"/>
+      <c r="CD284" s="2"/>
+      <c r="CE284" s="2"/>
+      <c r="CF284" s="2"/>
+      <c r="CG284" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BM25" r:id="rId1" display="abc@test.com"/>
-    <hyperlink ref="D46" r:id="rId2"/>
-    <hyperlink ref="D47" r:id="rId3"/>
-    <hyperlink ref="D50" r:id="rId4"/>
-    <hyperlink ref="D51" r:id="rId5"/>
-    <hyperlink ref="D52" r:id="rId6"/>
-    <hyperlink ref="D54" r:id="rId7"/>
-    <hyperlink ref="D56" r:id="rId8"/>
-    <hyperlink ref="D57" r:id="rId9"/>
-    <hyperlink ref="D58" r:id="rId10"/>
-    <hyperlink ref="D61" r:id="rId11"/>
-    <hyperlink ref="D62" r:id="rId12"/>
-    <hyperlink ref="C64" r:id="rId13"/>
-    <hyperlink ref="D64" r:id="rId14"/>
-    <hyperlink ref="C65" r:id="rId15"/>
-    <hyperlink ref="C68" r:id="rId16"/>
-    <hyperlink ref="C69" r:id="rId17"/>
-    <hyperlink ref="C72" r:id="rId18"/>
+    <hyperlink ref="D48" r:id="rId2"/>
+    <hyperlink ref="D49" r:id="rId3"/>
+    <hyperlink ref="D52" r:id="rId4"/>
+    <hyperlink ref="D53" r:id="rId5"/>
+    <hyperlink ref="D54" r:id="rId6"/>
+    <hyperlink ref="D56" r:id="rId7"/>
+    <hyperlink ref="D58" r:id="rId8"/>
+    <hyperlink ref="D59" r:id="rId9"/>
+    <hyperlink ref="D60" r:id="rId10"/>
+    <hyperlink ref="D63" r:id="rId11"/>
+    <hyperlink ref="D64" r:id="rId12"/>
+    <hyperlink ref="C66" r:id="rId13"/>
+    <hyperlink ref="D66" r:id="rId14"/>
+    <hyperlink ref="C67" r:id="rId15"/>
+    <hyperlink ref="C70" r:id="rId16"/>
+    <hyperlink ref="C71" r:id="rId17"/>
+    <hyperlink ref="C74" r:id="rId18"/>
     <hyperlink ref="C25" r:id="rId19"/>
     <hyperlink ref="C11" r:id="rId20"/>
-    <hyperlink ref="C164" r:id="rId21"/>
-    <hyperlink ref="C78" r:id="rId22"/>
-    <hyperlink ref="AU78" r:id="rId23" display="Ankit@12345"/>
-    <hyperlink ref="C76" r:id="rId24"/>
-    <hyperlink ref="C50" r:id="rId25"/>
-    <hyperlink ref="C58" r:id="rId26"/>
-    <hyperlink ref="C77" r:id="rId27"/>
-    <hyperlink ref="C79:C82" r:id="rId28" display="ankitgoel06@gmail.com"/>
-    <hyperlink ref="C84:C97" r:id="rId29" display="ankitgoel06@gmail.com"/>
-    <hyperlink ref="C95" r:id="rId30"/>
-    <hyperlink ref="C91" r:id="rId31"/>
-    <hyperlink ref="C94" r:id="rId32"/>
-    <hyperlink ref="C146" r:id="rId33"/>
-    <hyperlink ref="D146" r:id="rId34" display="Deepika@1234"/>
-    <hyperlink ref="C156" r:id="rId35"/>
-    <hyperlink ref="C157" r:id="rId36"/>
-    <hyperlink ref="C158" r:id="rId37"/>
-    <hyperlink ref="C159" r:id="rId38"/>
-    <hyperlink ref="C161" r:id="rId39"/>
-    <hyperlink ref="C168" r:id="rId40"/>
-    <hyperlink ref="C170" r:id="rId41"/>
-    <hyperlink ref="C171" r:id="rId42"/>
-    <hyperlink ref="D170" r:id="rId43"/>
-    <hyperlink ref="D171" r:id="rId44"/>
-    <hyperlink ref="C54" r:id="rId45"/>
-    <hyperlink ref="C152" r:id="rId46"/>
-    <hyperlink ref="C153" r:id="rId47"/>
-    <hyperlink ref="C154" r:id="rId48"/>
-    <hyperlink ref="C141" r:id="rId49"/>
-    <hyperlink ref="C142" r:id="rId50"/>
-    <hyperlink ref="AM131" r:id="rId51"/>
-    <hyperlink ref="C162" r:id="rId52"/>
-    <hyperlink ref="C163" r:id="rId53"/>
-    <hyperlink ref="C165" r:id="rId54"/>
-    <hyperlink ref="C166" r:id="rId55"/>
-    <hyperlink ref="C167" r:id="rId56"/>
+    <hyperlink ref="C166" r:id="rId21"/>
+    <hyperlink ref="C80" r:id="rId22"/>
+    <hyperlink ref="AU80" r:id="rId23" display="Ankit@12345"/>
+    <hyperlink ref="C78" r:id="rId24"/>
+    <hyperlink ref="C52" r:id="rId25"/>
+    <hyperlink ref="C60" r:id="rId26"/>
+    <hyperlink ref="C79" r:id="rId27"/>
+    <hyperlink ref="C81:C84" r:id="rId28" display="ankitgoel06@gmail.com"/>
+    <hyperlink ref="C86:C99" r:id="rId29" display="ankitgoel06@gmail.com"/>
+    <hyperlink ref="C97" r:id="rId30"/>
+    <hyperlink ref="C93" r:id="rId31"/>
+    <hyperlink ref="C96" r:id="rId32"/>
+    <hyperlink ref="C148" r:id="rId33"/>
+    <hyperlink ref="D148" r:id="rId34" display="Deepika@1234"/>
+    <hyperlink ref="C158" r:id="rId35"/>
+    <hyperlink ref="C159" r:id="rId36"/>
+    <hyperlink ref="C160" r:id="rId37"/>
+    <hyperlink ref="C161" r:id="rId38"/>
+    <hyperlink ref="C163" r:id="rId39"/>
+    <hyperlink ref="C170" r:id="rId40"/>
+    <hyperlink ref="C172" r:id="rId41"/>
+    <hyperlink ref="C173" r:id="rId42"/>
+    <hyperlink ref="D172" r:id="rId43"/>
+    <hyperlink ref="D173" r:id="rId44"/>
+    <hyperlink ref="C56" r:id="rId45"/>
+    <hyperlink ref="C154" r:id="rId46"/>
+    <hyperlink ref="C155" r:id="rId47"/>
+    <hyperlink ref="C156" r:id="rId48"/>
+    <hyperlink ref="C143" r:id="rId49"/>
+    <hyperlink ref="C144" r:id="rId50"/>
+    <hyperlink ref="AM133" r:id="rId51"/>
+    <hyperlink ref="C164" r:id="rId52"/>
+    <hyperlink ref="C165" r:id="rId53"/>
+    <hyperlink ref="C167" r:id="rId54"/>
+    <hyperlink ref="C168" r:id="rId55"/>
+    <hyperlink ref="C169" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId57"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Dependencies" sheetId="6" r:id="rId2"/>
     <sheet name="updates" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
   <oleSize ref="A1"/>
 </workbook>
 </file>
@@ -2007,10 +2007,10 @@
   <dimension ref="A1:CG284"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="BP9" sqref="BP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,7 +3485,9 @@
         <v>48</v>
       </c>
       <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
+      <c r="BS14" s="1">
+        <v>6575</v>
+      </c>
       <c r="BT14" s="1"/>
       <c r="BU14" s="1"/>
       <c r="BV14" s="1"/>
